--- a/results.xlsx
+++ b/results.xlsx
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8109084652443224</v>
+        <v>0.8109084652443223</v>
       </c>
       <c r="M4" t="n">
         <v>199770020</v>
@@ -1078,7 +1078,7 @@
         <v>1376</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5409999999999999</v>
+        <v>0.541</v>
       </c>
       <c r="W5" t="n">
         <v>3612945614</v>
@@ -1166,7 +1166,7 @@
         <v>133</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.05633333333333333</v>
+        <v>0.05633333333333334</v>
       </c>
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
@@ -1204,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5638297872340426</v>
+        <v>0.5638297872340424</v>
       </c>
       <c r="M6" t="n">
         <v>24010024</v>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5670103092783504</v>
+        <v>0.5670103092783505</v>
       </c>
       <c r="M8" t="n">
         <v>24010020.66666667</v>
@@ -1672,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7894908616187988</v>
+        <v>0.7894908616187989</v>
       </c>
       <c r="M9" t="n">
         <v>54950018</v>
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8098360655737707</v>
+        <v>0.8098360655737706</v>
       </c>
       <c r="M10" t="n">
         <v>54620021.33333334</v>
@@ -1946,7 +1946,7 @@
         <v>133</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.7971584699453551</v>
+        <v>0.7971584699453552</v>
       </c>
       <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="inlineStr"/>
@@ -2152,7 +2152,7 @@
         <v>10000</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8053002953724976</v>
+        <v>0.8053002953724975</v>
       </c>
       <c r="Q12" t="n">
         <v>10000</v>
@@ -2246,7 +2246,7 @@
         <v>100</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.7646636035444699</v>
+        <v>0.76466360354447</v>
       </c>
       <c r="AY12" t="n">
         <v>622136.3333333334</v>
@@ -2258,7 +2258,7 @@
         <v>133</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.8046165627393065</v>
+        <v>0.8046165627393064</v>
       </c>
       <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="inlineStr"/>
@@ -2296,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4586693548387098</v>
+        <v>0.4586693548387097</v>
       </c>
       <c r="M13" t="n">
         <v>54950018.66666666</v>
@@ -2482,7 +2482,7 @@
         <v>1376</v>
       </c>
       <c r="V14" t="n">
-        <v>0.527961736571008</v>
+        <v>0.5279617365710081</v>
       </c>
       <c r="W14" t="n">
         <v>500695786</v>
@@ -2608,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8436316695352841</v>
+        <v>0.843631669535284</v>
       </c>
       <c r="M15" t="n">
         <v>199770015.3333333</v>
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4473963868225291</v>
+        <v>0.4473963868225292</v>
       </c>
       <c r="M16" t="n">
         <v>54730013.33333334</v>
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7990119020884797</v>
+        <v>0.7990119020884798</v>
       </c>
       <c r="M18" t="n">
         <v>219910018.5</v>
@@ -3088,13 +3088,13 @@
         <v>10000</v>
       </c>
       <c r="P18" t="n">
-        <v>0.767871846695112</v>
+        <v>0.7678718466951119</v>
       </c>
       <c r="Q18" t="n">
         <v>10000</v>
       </c>
       <c r="R18" t="n">
-        <v>0.7481929860019462</v>
+        <v>0.7481929860019463</v>
       </c>
       <c r="S18" t="n">
         <v>27515336.25</v>
@@ -3106,7 +3106,7 @@
         <v>1376</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8304326671158021</v>
+        <v>0.830432667115802</v>
       </c>
       <c r="W18" t="n">
         <v>17501380962</v>
@@ -3232,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8078537170263791</v>
+        <v>0.807853717026379</v>
       </c>
       <c r="M19" t="n">
         <v>219910018.6666667</v>
@@ -3250,7 +3250,7 @@
         <v>10000</v>
       </c>
       <c r="R19" t="n">
-        <v>0.7490515812350121</v>
+        <v>0.7490515812350119</v>
       </c>
       <c r="S19" t="n">
         <v>27515416</v>
@@ -3388,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7928319712079178</v>
+        <v>0.7928319712079177</v>
       </c>
       <c r="M20" t="n">
         <v>219910014</v>
@@ -3980,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2895694360218313</v>
+        <v>0.2895694360218314</v>
       </c>
       <c r="M24" t="n">
         <v>219910016.6666667</v>
@@ -4098,7 +4098,7 @@
         <v>133</v>
       </c>
       <c r="BB24" t="n">
-        <v>0.04194461289670508</v>
+        <v>0.04194461289670507</v>
       </c>
       <c r="BC24" t="inlineStr"/>
       <c r="BD24" t="inlineStr"/>
@@ -4182,7 +4182,7 @@
         <v>1147</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.3347038668624571</v>
+        <v>0.3347038668624572</v>
       </c>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>10000</v>
       </c>
       <c r="P27" t="n">
-        <v>0.09297782986619786</v>
+        <v>0.09297782986619789</v>
       </c>
       <c r="Q27" t="n">
         <v>10000</v>
@@ -4588,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2836858006042297</v>
+        <v>0.2836858006042295</v>
       </c>
       <c r="M28" t="n">
         <v>219910022</v>
@@ -4744,7 +4744,7 @@
         <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5134751773049644</v>
+        <v>0.5134751773049646</v>
       </c>
       <c r="M29" t="n">
         <v>60010016</v>
@@ -4774,7 +4774,7 @@
         <v>1376</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3096926713947991</v>
+        <v>0.309692671394799</v>
       </c>
       <c r="W29" t="n">
         <v>1806489684</v>
@@ -4900,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>0.492040520984081</v>
+        <v>0.4920405209840809</v>
       </c>
       <c r="M30" t="n">
         <v>60010018</v>
@@ -5048,7 +5048,7 @@
         <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>0.4942196531791909</v>
+        <v>0.4942196531791907</v>
       </c>
       <c r="M31" t="n">
         <v>60010012</v>
@@ -5196,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>0.8003122154286456</v>
+        <v>0.8003122154286457</v>
       </c>
       <c r="M32" t="n">
         <v>137790021</v>
@@ -5504,7 +5504,7 @@
         <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>0.7918346118840204</v>
+        <v>0.7918346118840202</v>
       </c>
       <c r="Q34" t="n">
         <v>10000</v>
@@ -5546,7 +5546,7 @@
         <v>1147</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.848220864213583</v>
+        <v>0.8482208642135829</v>
       </c>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
@@ -5694,7 +5694,7 @@
         <v>1147</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.8545352063822408</v>
+        <v>0.8545352063822409</v>
       </c>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
@@ -5746,7 +5746,7 @@
         <v>100</v>
       </c>
       <c r="AX35" t="n">
-        <v>0.765855445716268</v>
+        <v>0.7658554457162677</v>
       </c>
       <c r="AY35" t="n">
         <v>1569296</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>0.4289867109634552</v>
+        <v>0.4289867109634551</v>
       </c>
       <c r="M36" t="n">
         <v>137790016</v>
@@ -5944,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>0.8554868624420403</v>
+        <v>0.8554868624420401</v>
       </c>
       <c r="M37" t="n">
         <v>199770021.3333333</v>
@@ -6000,10 +6000,18 @@
       <c r="AD37" t="n">
         <v>0.9215467399393211</v>
       </c>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
+      <c r="AE37" t="n">
+        <v>3512913034</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>298.8470411300659</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>183174</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.9738966168641594</v>
+      </c>
       <c r="AI37" t="n">
         <v>19977014</v>
       </c>
@@ -6064,10 +6072,18 @@
       <c r="BB37" t="n">
         <v>0.8452401396759974</v>
       </c>
-      <c r="BC37" t="inlineStr"/>
-      <c r="BD37" t="inlineStr"/>
-      <c r="BE37" t="inlineStr"/>
-      <c r="BF37" t="inlineStr"/>
+      <c r="BC37" t="n">
+        <v>447289677</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>34.24885296821594</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>23323</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>0.8830499742400825</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6396,7 +6412,7 @@
         <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4478033051189037</v>
+        <v>0.4478033051189035</v>
       </c>
       <c r="M40" t="n">
         <v>137800022</v>
@@ -6552,7 +6568,7 @@
         <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>0.8055555555555555</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="M41" t="n">
         <v>109910033</v>
@@ -6650,7 +6666,7 @@
         <v>100</v>
       </c>
       <c r="AX41" t="n">
-        <v>0.7500095095095095</v>
+        <v>0.7500095095095096</v>
       </c>
       <c r="AY41" t="n">
         <v>1330344.666666667</v>
@@ -6662,7 +6678,7 @@
         <v>133</v>
       </c>
       <c r="BB41" t="n">
-        <v>0.7744244244244246</v>
+        <v>0.7744244244244244</v>
       </c>
       <c r="BC41" t="inlineStr"/>
       <c r="BD41" t="inlineStr"/>
@@ -6946,7 +6962,7 @@
         <v>100</v>
       </c>
       <c r="AX43" t="n">
-        <v>0.7509913836288949</v>
+        <v>0.7509913836288948</v>
       </c>
       <c r="AY43" t="n">
         <v>1330411.333333333</v>
@@ -7174,7 +7190,7 @@
         <v>1376</v>
       </c>
       <c r="V45" t="n">
-        <v>0.8697611536728256</v>
+        <v>0.8697611536728257</v>
       </c>
       <c r="W45" t="n">
         <v>2142656684</v>
@@ -7496,10 +7512,18 @@
       <c r="AD47" t="n">
         <v>0.5805555555555556</v>
       </c>
-      <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="inlineStr"/>
-      <c r="AG47" t="inlineStr"/>
-      <c r="AH47" t="inlineStr"/>
+      <c r="AE47" t="n">
+        <v>3797049459</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>236.8762559890747</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>632630</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0.7273333333333334</v>
+      </c>
       <c r="AI47" t="n">
         <v>9001017</v>
       </c>
@@ -7558,12 +7582,20 @@
         <v>133</v>
       </c>
       <c r="BB47" t="n">
-        <v>0.5074444444444444</v>
-      </c>
-      <c r="BC47" t="inlineStr"/>
-      <c r="BD47" t="inlineStr"/>
-      <c r="BE47" t="inlineStr"/>
-      <c r="BF47" t="inlineStr"/>
+        <v>0.5074444444444445</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>29394913</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>1.766416311264038</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>4897</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>0.509</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -7596,7 +7628,7 @@
         <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>0.8158369873613618</v>
+        <v>0.8158369873613619</v>
       </c>
       <c r="M48" t="n">
         <v>199770017</v>
@@ -8236,10 +8268,18 @@
       <c r="AD52" t="n">
         <v>0.8993073593073593</v>
       </c>
-      <c r="AE52" t="inlineStr"/>
-      <c r="AF52" t="inlineStr"/>
-      <c r="AG52" t="inlineStr"/>
-      <c r="AH52" t="inlineStr"/>
+      <c r="AE52" t="n">
+        <v>686281334</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>59.85848927497864</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>116004</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0.9542857142857143</v>
+      </c>
       <c r="AI52" t="n">
         <v>6915018</v>
       </c>
@@ -8300,10 +8340,18 @@
       <c r="BB52" t="n">
         <v>0.7925541125541126</v>
       </c>
-      <c r="BC52" t="inlineStr"/>
-      <c r="BD52" t="inlineStr"/>
-      <c r="BE52" t="inlineStr"/>
-      <c r="BF52" t="inlineStr"/>
+      <c r="BC52" t="n">
+        <v>17323167</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>1.465623140335083</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>2928</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>0.8306493506493506</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -8484,7 +8532,7 @@
         <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>0.8193999417419169</v>
+        <v>0.8193999417419167</v>
       </c>
       <c r="M54" t="n">
         <v>174990017</v>
@@ -8576,7 +8624,7 @@
         <v>100</v>
       </c>
       <c r="AV54" t="n">
-        <v>0.6186361135385312</v>
+        <v>0.6186361135385313</v>
       </c>
       <c r="AW54" t="n">
         <v>100</v>
@@ -8594,7 +8642,7 @@
         <v>133</v>
       </c>
       <c r="BB54" t="n">
-        <v>0.6175356830760269</v>
+        <v>0.6175356830760268</v>
       </c>
       <c r="BC54" t="inlineStr"/>
       <c r="BD54" t="inlineStr"/>
@@ -8780,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>0.4682312535775616</v>
+        <v>0.4682312535775615</v>
       </c>
       <c r="M56" t="n">
         <v>150010022</v>
@@ -8928,7 +8976,7 @@
         <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>0.8093090758306121</v>
+        <v>0.8093090758306122</v>
       </c>
       <c r="M57" t="n">
         <v>345710025</v>
@@ -9224,7 +9272,7 @@
         <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>0.2043158861340681</v>
+        <v>0.204315886134068</v>
       </c>
       <c r="M59" t="n">
         <v>199770013</v>
@@ -9272,10 +9320,18 @@
       <c r="AD59" t="n">
         <v>0.5555555555555555</v>
       </c>
-      <c r="AE59" t="inlineStr"/>
-      <c r="AF59" t="inlineStr"/>
-      <c r="AG59" t="inlineStr"/>
-      <c r="AH59" t="inlineStr"/>
+      <c r="AE59" t="n">
+        <v>3502556912</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>294.3551330566406</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>182634</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>0.8962350780532599</v>
+      </c>
       <c r="AI59" t="n">
         <v>19977017</v>
       </c>
@@ -9336,10 +9392,18 @@
       <c r="BB59" t="n">
         <v>0.09044995408631773</v>
       </c>
-      <c r="BC59" t="inlineStr"/>
-      <c r="BD59" t="inlineStr"/>
-      <c r="BE59" t="inlineStr"/>
-      <c r="BF59" t="inlineStr"/>
+      <c r="BC59" t="n">
+        <v>408204913</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>34.03529810905457</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>21285</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>0.3292011019283747</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -9372,7 +9436,7 @@
         <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>0.8133634056949537</v>
+        <v>0.8133634056949535</v>
       </c>
       <c r="M60" t="n">
         <v>241490016</v>
@@ -9618,7 +9682,7 @@
         <v>100</v>
       </c>
       <c r="AX61" t="n">
-        <v>0.03094893029675637</v>
+        <v>0.03094893029675638</v>
       </c>
       <c r="AY61" t="n">
         <v>2288341.333333333</v>
@@ -9668,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>0.4907597535934292</v>
+        <v>0.4907597535934293</v>
       </c>
       <c r="M62" t="n">
         <v>210010013</v>
@@ -9862,7 +9926,7 @@
         <v>1147</v>
       </c>
       <c r="AD63" t="n">
-        <v>0.8036605657237937</v>
+        <v>0.8036605657237935</v>
       </c>
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr"/>
@@ -10112,7 +10176,7 @@
         <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>0.5034160373966198</v>
+        <v>0.50341603739662</v>
       </c>
       <c r="M65" t="n">
         <v>240010014</v>
@@ -10158,7 +10222,7 @@
         <v>1147</v>
       </c>
       <c r="AD65" t="n">
-        <v>0.08042670502217429</v>
+        <v>0.08042670502217428</v>
       </c>
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr"/>
@@ -10222,7 +10286,7 @@
         <v>133</v>
       </c>
       <c r="BB65" t="n">
-        <v>0.004195133644971831</v>
+        <v>0.004195133644971832</v>
       </c>
       <c r="BC65" t="inlineStr"/>
       <c r="BD65" t="inlineStr"/>
@@ -10260,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>0.501257071024513</v>
+        <v>0.5012570710245129</v>
       </c>
       <c r="M66" t="n">
         <v>270010013</v>
@@ -10370,7 +10434,7 @@
         <v>133</v>
       </c>
       <c r="BB66" t="n">
-        <v>0.01896082128640268</v>
+        <v>0.01896082128640269</v>
       </c>
       <c r="BC66" t="inlineStr"/>
       <c r="BD66" t="inlineStr"/>
@@ -10408,7 +10472,7 @@
         <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>0.4946762589928059</v>
+        <v>0.4946762589928058</v>
       </c>
       <c r="M67" t="n">
         <v>300010019</v>
@@ -10454,7 +10518,7 @@
         <v>1147</v>
       </c>
       <c r="AD67" t="n">
-        <v>0.06743405275779377</v>
+        <v>0.06743405275779378</v>
       </c>
       <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="inlineStr"/>
@@ -10602,7 +10666,7 @@
         <v>1147</v>
       </c>
       <c r="AD68" t="n">
-        <v>0.5324027916251246</v>
+        <v>0.5324027916251247</v>
       </c>
       <c r="AE68" t="inlineStr"/>
       <c r="AF68" t="inlineStr"/>
@@ -10704,7 +10768,7 @@
         <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>0.8695652173913044</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="M69" t="n">
         <v>200000019</v>
@@ -10852,7 +10916,7 @@
         <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>0.5169854410505279</v>
+        <v>0.5169854410505281</v>
       </c>
       <c r="M70" t="n">
         <v>300010017</v>
@@ -11056,10 +11120,18 @@
       <c r="AD71" t="n">
         <v>0.5178719866999169</v>
       </c>
-      <c r="AE71" t="inlineStr"/>
-      <c r="AF71" t="inlineStr"/>
-      <c r="AG71" t="inlineStr"/>
-      <c r="AH71" t="inlineStr"/>
+      <c r="AE71" t="n">
+        <v>3532934890</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>211.8440709114075</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>184218</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>0.9097256857855361</v>
+      </c>
       <c r="AI71" t="n">
         <v>19977012</v>
       </c>
@@ -11120,10 +11192,18 @@
       <c r="BB71" t="n">
         <v>0.1029093931837074</v>
       </c>
-      <c r="BC71" t="inlineStr"/>
-      <c r="BD71" t="inlineStr"/>
-      <c r="BE71" t="inlineStr"/>
-      <c r="BF71" t="inlineStr"/>
+      <c r="BC71" t="n">
+        <v>447807483</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>26.7477822303772</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>23350</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>0.3286783042394015</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -11256,7 +11336,7 @@
         <v>100</v>
       </c>
       <c r="AV72" t="n">
-        <v>0.08000649139889646</v>
+        <v>0.08000649139889647</v>
       </c>
       <c r="AW72" t="n">
         <v>100</v>
@@ -11274,7 +11354,7 @@
         <v>133</v>
       </c>
       <c r="BB72" t="n">
-        <v>0.05842259006815969</v>
+        <v>0.0584225900681597</v>
       </c>
       <c r="BC72" t="inlineStr"/>
       <c r="BD72" t="inlineStr"/>
@@ -11542,7 +11622,7 @@
         <v>19</v>
       </c>
       <c r="AF74" t="n">
-        <v>7.867813110351562e-06</v>
+        <v>7.987022399902344e-06</v>
       </c>
       <c r="AG74" t="n">
         <v>5</v>
@@ -11614,7 +11694,7 @@
         <v>19</v>
       </c>
       <c r="BD74" t="n">
-        <v>1.406669616699219e-05</v>
+        <v>1.645088195800782e-05</v>
       </c>
       <c r="BE74" t="n">
         <v>5</v>
@@ -11726,7 +11806,7 @@
         <v>3</v>
       </c>
       <c r="AH75" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.5789473684210525</v>
       </c>
       <c r="AI75" t="n">
         <v>242</v>
@@ -11898,13 +11978,13 @@
         <v>17</v>
       </c>
       <c r="AF76" t="n">
-        <v>8.106231689453125e-06</v>
+        <v>6.914138793945312e-06</v>
       </c>
       <c r="AG76" t="n">
         <v>2</v>
       </c>
       <c r="AH76" t="n">
-        <v>0.7314814814814815</v>
+        <v>0.7916666666666667</v>
       </c>
       <c r="AI76" t="n">
         <v>230</v>
@@ -11967,16 +12047,16 @@
         <v>1</v>
       </c>
       <c r="BC76" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BD76" t="n">
-        <v>1.215934753417969e-05</v>
+        <v>1.502037048339844e-05</v>
       </c>
       <c r="BE76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF76" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9861111111111112</v>
       </c>
     </row>
     <row r="77">
@@ -12372,7 +12452,7 @@
         <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>0.6451612903225805</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="M79" t="n">
         <v>751.3333333333334</v>
@@ -13141,16 +13221,16 @@
         <v>1</v>
       </c>
       <c r="AE83" t="n">
-        <v>34</v>
+        <v>31.75</v>
       </c>
       <c r="AF83" t="n">
-        <v>7.867813110351562e-06</v>
+        <v>8.106231689453125e-06</v>
       </c>
       <c r="AG83" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AH83" t="n">
-        <v>0.8141025641025642</v>
+        <v>0.7836538461538461</v>
       </c>
       <c r="AI83" t="n">
         <v>2580</v>
@@ -13213,16 +13293,16 @@
         <v>0.9935897435897436</v>
       </c>
       <c r="BC83" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="BD83" t="n">
-        <v>1.430511474609375e-05</v>
+        <v>1.919269561767578e-05</v>
       </c>
       <c r="BE83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF83" t="n">
-        <v>0.6346153846153846</v>
+        <v>0.7884615384615384</v>
       </c>
     </row>
     <row r="84">
@@ -13262,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>0.9885057471264366</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="M84" t="n">
         <v>2497.714285714286</v>
@@ -13636,7 +13716,7 @@
         <v>713.6666666666666</v>
       </c>
       <c r="R86" t="n">
-        <v>0.09180998256226386</v>
+        <v>0.09180998256226384</v>
       </c>
       <c r="S86" t="n">
         <v>13798.16666666667</v>
@@ -14040,7 +14120,7 @@
         <v>6</v>
       </c>
       <c r="AH88" t="n">
-        <v>0.8760330578512395</v>
+        <v>0.8760330578512397</v>
       </c>
       <c r="AI88" t="n">
         <v>7561</v>
@@ -14387,16 +14467,16 @@
         <v>1</v>
       </c>
       <c r="AE90" t="n">
-        <v>42</v>
+        <v>38.25</v>
       </c>
       <c r="AF90" t="n">
-        <v>9.059906005859375e-06</v>
+        <v>8.463859558105469e-06</v>
       </c>
       <c r="AG90" t="n">
-        <v>3.666666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="AH90" t="n">
-        <v>0.7743589743589744</v>
+        <v>0.7769230769230768</v>
       </c>
       <c r="AI90" t="n">
         <v>10021</v>
@@ -14462,13 +14542,13 @@
         <v>27</v>
       </c>
       <c r="BD90" t="n">
-        <v>1.621246337890625e-05</v>
+        <v>1.597404479980469e-05</v>
       </c>
       <c r="BE90" t="n">
         <v>2</v>
       </c>
       <c r="BF90" t="n">
-        <v>0.4923076923076923</v>
+        <v>0.7076923076923077</v>
       </c>
     </row>
     <row r="91">
@@ -14622,7 +14702,7 @@
         <v>100</v>
       </c>
       <c r="AX91" t="n">
-        <v>0.5183687943262413</v>
+        <v>0.5183687943262412</v>
       </c>
       <c r="AY91" t="n">
         <v>2548</v>
@@ -14686,7 +14766,7 @@
         <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>0.9874213836477989</v>
+        <v>0.9874213836477987</v>
       </c>
       <c r="M92" t="n">
         <v>16188.66666666667</v>
@@ -14882,7 +14962,7 @@
         <v>3865.833333333333</v>
       </c>
       <c r="R93" t="n">
-        <v>0.06791880195028292</v>
+        <v>0.06791880195028294</v>
       </c>
       <c r="S93" t="n">
         <v>11933.33333333333</v>
@@ -14978,7 +15058,7 @@
         <v>100</v>
       </c>
       <c r="AX93" t="n">
-        <v>0.4570707070707071</v>
+        <v>0.457070707070707</v>
       </c>
       <c r="AY93" t="n">
         <v>1157</v>
@@ -15042,7 +15122,7 @@
         <v>1</v>
       </c>
       <c r="L94" t="n">
-        <v>0.9193548387096773</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="M94" t="n">
         <v>37033.83333333334</v>
@@ -15060,7 +15140,7 @@
         <v>3544.5</v>
       </c>
       <c r="R94" t="n">
-        <v>0.07324889637488466</v>
+        <v>0.07324889637488467</v>
       </c>
       <c r="S94" t="n">
         <v>19248.33333333333</v>
@@ -15084,7 +15164,7 @@
         <v>23.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>0.9596774193548389</v>
+        <v>0.9596774193548386</v>
       </c>
       <c r="AA94" t="n">
         <v>16496.4</v>
@@ -15108,7 +15188,7 @@
         <v>2.666666666666667</v>
       </c>
       <c r="AH94" t="n">
-        <v>0.89247311827957</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="AI94" t="n">
         <v>13343</v>
@@ -15156,7 +15236,7 @@
         <v>100</v>
       </c>
       <c r="AX94" t="n">
-        <v>0.4683870967741934</v>
+        <v>0.4683870967741935</v>
       </c>
       <c r="AY94" t="n">
         <v>1874</v>
@@ -15398,7 +15478,7 @@
         <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>0.9699999999999998</v>
+        <v>0.9700000000000001</v>
       </c>
       <c r="M96" t="n">
         <v>40992.66666666666</v>
@@ -15754,7 +15834,7 @@
         <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>0.8761061946902655</v>
+        <v>0.8761061946902654</v>
       </c>
       <c r="M98" t="n">
         <v>85270.66666666667</v>
@@ -15772,7 +15852,7 @@
         <v>7296.833333333333</v>
       </c>
       <c r="R98" t="n">
-        <v>0.0714706388377037</v>
+        <v>0.07147063883770369</v>
       </c>
       <c r="S98" t="n">
         <v>22097.16666666667</v>
@@ -15862,7 +15942,7 @@
         <v>95</v>
       </c>
       <c r="AV98" t="n">
-        <v>0.9292035398230087</v>
+        <v>0.9292035398230089</v>
       </c>
       <c r="AW98" t="n">
         <v>100</v>
@@ -15998,7 +16078,7 @@
         <v>15</v>
       </c>
       <c r="AH99" t="n">
-        <v>0.8251851851851852</v>
+        <v>0.8251851851851851</v>
       </c>
       <c r="AI99" t="n">
         <v>24627.5</v>
@@ -16110,7 +16190,7 @@
         <v>1</v>
       </c>
       <c r="L100" t="n">
-        <v>0.873076923076923</v>
+        <v>0.8730769230769231</v>
       </c>
       <c r="M100" t="n">
         <v>112849</v>
@@ -16152,7 +16232,7 @@
         <v>29.83333333333333</v>
       </c>
       <c r="Z100" t="n">
-        <v>0.9775641025641025</v>
+        <v>0.9775641025641026</v>
       </c>
       <c r="AA100" t="n">
         <v>44245.4</v>
@@ -16167,16 +16247,16 @@
         <v>1</v>
       </c>
       <c r="AE100" t="n">
-        <v>600.3333333333334</v>
+        <v>594.5</v>
       </c>
       <c r="AF100" t="n">
-        <v>4.506111145019531e-05</v>
+        <v>4.661083221435547e-05</v>
       </c>
       <c r="AG100" t="n">
-        <v>16.66666666666667</v>
+        <v>16.5</v>
       </c>
       <c r="AH100" t="n">
-        <v>0.9141025641025641</v>
+        <v>0.9288461538461539</v>
       </c>
       <c r="AI100" t="n">
         <v>31653</v>
@@ -16242,13 +16322,13 @@
         <v>81</v>
       </c>
       <c r="BD100" t="n">
-        <v>1.811981201171875e-05</v>
+        <v>2.300739288330078e-05</v>
       </c>
       <c r="BE100" t="n">
         <v>2</v>
       </c>
       <c r="BF100" t="n">
-        <v>0.4769230769230769</v>
+        <v>0.6826923076923077</v>
       </c>
     </row>
     <row r="101">
@@ -16644,7 +16724,7 @@
         <v>1</v>
       </c>
       <c r="L103" t="n">
-        <v>0.8700787401574803</v>
+        <v>0.8700787401574802</v>
       </c>
       <c r="M103" t="n">
         <v>166915.6666666667</v>
@@ -16710,7 +16790,7 @@
         <v>12.66666666666667</v>
       </c>
       <c r="AH103" t="n">
-        <v>0.9015748031496064</v>
+        <v>0.9015748031496061</v>
       </c>
       <c r="AI103" t="n">
         <v>32980</v>
@@ -16822,7 +16902,7 @@
         <v>1</v>
       </c>
       <c r="L104" t="n">
-        <v>0.9147540983606557</v>
+        <v>0.9147540983606556</v>
       </c>
       <c r="M104" t="n">
         <v>195259</v>
@@ -16936,7 +17016,7 @@
         <v>100</v>
       </c>
       <c r="AX104" t="n">
-        <v>0.6659781420765029</v>
+        <v>0.6659781420765027</v>
       </c>
       <c r="AY104" t="n">
         <v>6146.333333333333</v>
@@ -17196,7 +17276,7 @@
         <v>10000</v>
       </c>
       <c r="R106" t="n">
-        <v>0.2095185821697099</v>
+        <v>0.20951858216971</v>
       </c>
       <c r="S106" t="n">
         <v>28806.57142857143</v>
@@ -17220,7 +17300,7 @@
         <v>31.85714285714286</v>
       </c>
       <c r="Z106" t="n">
-        <v>0.9301825993555317</v>
+        <v>0.9301825993555316</v>
       </c>
       <c r="AA106" t="n">
         <v>24437.2</v>
@@ -17244,7 +17324,7 @@
         <v>9.666666666666666</v>
       </c>
       <c r="AH106" t="n">
-        <v>0.7418546365914787</v>
+        <v>0.7418546365914788</v>
       </c>
       <c r="AI106" t="n">
         <v>27045</v>
@@ -17534,7 +17614,7 @@
         <v>1</v>
       </c>
       <c r="L108" t="n">
-        <v>0.8430232558139534</v>
+        <v>0.8430232558139535</v>
       </c>
       <c r="M108" t="n">
         <v>306524</v>
@@ -17576,7 +17656,7 @@
         <v>50</v>
       </c>
       <c r="Z108" t="n">
-        <v>0.9161821705426356</v>
+        <v>0.9161821705426357</v>
       </c>
       <c r="AA108" t="n">
         <v>62610</v>
@@ -17712,7 +17792,7 @@
         <v>1</v>
       </c>
       <c r="L109" t="n">
-        <v>0.9793814432989689</v>
+        <v>0.979381443298969</v>
       </c>
       <c r="M109" t="n">
         <v>187556</v>
@@ -17908,7 +17988,7 @@
         <v>10000</v>
       </c>
       <c r="R110" t="n">
-        <v>0.3051088454376164</v>
+        <v>0.3051088454376165</v>
       </c>
       <c r="S110" t="n">
         <v>33237.16666666666</v>
@@ -17932,7 +18012,7 @@
         <v>44.5</v>
       </c>
       <c r="Z110" t="n">
-        <v>0.889199255121043</v>
+        <v>0.8891992551210429</v>
       </c>
       <c r="AA110" t="n">
         <v>28147.6</v>
@@ -18068,7 +18148,7 @@
         <v>1</v>
       </c>
       <c r="L111" t="n">
-        <v>0.8706624605678235</v>
+        <v>0.8706624605678234</v>
       </c>
       <c r="M111" t="n">
         <v>360977.6666666667</v>
@@ -18086,7 +18166,7 @@
         <v>10000</v>
       </c>
       <c r="R111" t="n">
-        <v>0.3786256572029442</v>
+        <v>0.3786256572029443</v>
       </c>
       <c r="S111" t="n">
         <v>60804.83333333334</v>
@@ -18110,7 +18190,7 @@
         <v>50.66666666666666</v>
       </c>
       <c r="Z111" t="n">
-        <v>0.9626708727655101</v>
+        <v>0.9626708727655099</v>
       </c>
       <c r="AA111" t="n">
         <v>51187</v>
@@ -18134,7 +18214,7 @@
         <v>17.33333333333333</v>
       </c>
       <c r="AH111" t="n">
-        <v>0.9242902208201893</v>
+        <v>0.9242902208201892</v>
       </c>
       <c r="AI111" t="n">
         <v>50854</v>
@@ -18246,7 +18326,7 @@
         <v>1</v>
       </c>
       <c r="L112" t="n">
-        <v>0.8485639686684074</v>
+        <v>0.8485639686684073</v>
       </c>
       <c r="M112" t="n">
         <v>471645.3333333333</v>
@@ -18424,7 +18504,7 @@
         <v>1</v>
       </c>
       <c r="L113" t="n">
-        <v>0.9800000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="M113" t="n">
         <v>229964</v>
@@ -18454,7 +18534,7 @@
         <v>1376</v>
       </c>
       <c r="V113" t="n">
-        <v>0.995</v>
+        <v>0.9950000000000001</v>
       </c>
       <c r="W113" t="n">
         <v>546.5714285714286</v>
@@ -18481,13 +18561,13 @@
         <v>0.998</v>
       </c>
       <c r="AE113" t="n">
-        <v>112.3333333333333</v>
+        <v>124.25</v>
       </c>
       <c r="AF113" t="n">
-        <v>1.502037048339844e-05</v>
+        <v>1.800060272216797e-05</v>
       </c>
       <c r="AG113" t="n">
-        <v>7.333333333333333</v>
+        <v>8.25</v>
       </c>
       <c r="AH113" t="n">
         <v>0.7899999999999999</v>
@@ -18538,7 +18618,7 @@
         <v>100</v>
       </c>
       <c r="AX113" t="n">
-        <v>0.5078666666666667</v>
+        <v>0.5078666666666666</v>
       </c>
       <c r="AY113" t="n">
         <v>2162</v>
@@ -18556,13 +18636,13 @@
         <v>54</v>
       </c>
       <c r="BD113" t="n">
-        <v>2.002716064453125e-05</v>
+        <v>1.990795135498047e-05</v>
       </c>
       <c r="BE113" t="n">
         <v>3</v>
       </c>
       <c r="BF113" t="n">
-        <v>0.49</v>
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="114">
@@ -18602,7 +18682,7 @@
         <v>1</v>
       </c>
       <c r="L114" t="n">
-        <v>0.8708133971291867</v>
+        <v>0.8708133971291866</v>
       </c>
       <c r="M114" t="n">
         <v>312063</v>
@@ -18888,7 +18968,7 @@
         <v>100</v>
       </c>
       <c r="AV115" t="n">
-        <v>0.9091710758377426</v>
+        <v>0.9091710758377425</v>
       </c>
       <c r="AW115" t="n">
         <v>100</v>
@@ -18958,7 +19038,7 @@
         <v>1</v>
       </c>
       <c r="L116" t="n">
-        <v>0.9023354564755838</v>
+        <v>0.9023354564755839</v>
       </c>
       <c r="M116" t="n">
         <v>655978.3333333334</v>
@@ -18976,7 +19056,7 @@
         <v>10000</v>
       </c>
       <c r="R116" t="n">
-        <v>0.5406928167020524</v>
+        <v>0.5406928167020523</v>
       </c>
       <c r="S116" t="n">
         <v>100764.3333333333</v>
@@ -19072,7 +19152,7 @@
         <v>100</v>
       </c>
       <c r="AX116" t="n">
-        <v>0.7185138004246285</v>
+        <v>0.7185138004246284</v>
       </c>
       <c r="AY116" t="n">
         <v>9777</v>
@@ -19244,13 +19324,13 @@
         <v>99.66666666666667</v>
       </c>
       <c r="AV117" t="n">
-        <v>0.933933933933934</v>
+        <v>0.9339339339339339</v>
       </c>
       <c r="AW117" t="n">
         <v>100</v>
       </c>
       <c r="AX117" t="n">
-        <v>0.486996996996997</v>
+        <v>0.4869969969969971</v>
       </c>
       <c r="AY117" t="n">
         <v>2408.666666666667</v>
@@ -19492,7 +19572,7 @@
         <v>1</v>
       </c>
       <c r="L119" t="n">
-        <v>0.9896640826873384</v>
+        <v>0.9896640826873385</v>
       </c>
       <c r="M119" t="n">
         <v>605542</v>
@@ -19534,7 +19614,7 @@
         <v>53.16666666666666</v>
       </c>
       <c r="Z119" t="n">
-        <v>0.9603789836347976</v>
+        <v>0.9603789836347977</v>
       </c>
       <c r="AA119" t="n">
         <v>66046.8</v>
@@ -19549,16 +19629,16 @@
         <v>0.9984496124031008</v>
       </c>
       <c r="AE119" t="n">
-        <v>1716.333333333333</v>
+        <v>1644.75</v>
       </c>
       <c r="AF119" t="n">
-        <v>0.0001127719879150391</v>
+        <v>0.0001069307327270508</v>
       </c>
       <c r="AG119" t="n">
-        <v>31.33333333333333</v>
+        <v>30</v>
       </c>
       <c r="AH119" t="n">
-        <v>0.958656330749354</v>
+        <v>0.9683462532299743</v>
       </c>
       <c r="AI119" t="n">
         <v>67217</v>
@@ -19621,16 +19701,16 @@
         <v>0.9621016365202412</v>
       </c>
       <c r="BC119" t="n">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="BD119" t="n">
-        <v>2.789497375488281e-05</v>
+        <v>2.646446228027343e-05</v>
       </c>
       <c r="BE119" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BF119" t="n">
-        <v>0.7312661498708011</v>
+        <v>0.6847545219638242</v>
       </c>
     </row>
     <row r="120">
@@ -19848,7 +19928,7 @@
         <v>1</v>
       </c>
       <c r="L121" t="n">
-        <v>0.9178082191780821</v>
+        <v>0.9178082191780822</v>
       </c>
       <c r="M121" t="n">
         <v>308524.4</v>
@@ -19890,7 +19970,7 @@
         <v>55.5</v>
       </c>
       <c r="Z121" t="n">
-        <v>0.9646118721461189</v>
+        <v>0.9646118721461187</v>
       </c>
       <c r="AA121" t="n">
         <v>23287.6</v>
@@ -20026,7 +20106,7 @@
         <v>1</v>
       </c>
       <c r="L122" t="n">
-        <v>0.8710801393728221</v>
+        <v>0.8710801393728222</v>
       </c>
       <c r="M122" t="n">
         <v>447676.8</v>
@@ -20080,7 +20160,7 @@
         <v>1147</v>
       </c>
       <c r="AD122" t="n">
-        <v>0.9930313588850174</v>
+        <v>0.9930313588850176</v>
       </c>
       <c r="AE122" t="n">
         <v>309</v>
@@ -20204,7 +20284,7 @@
         <v>1</v>
       </c>
       <c r="L123" t="n">
-        <v>0.8835164835164836</v>
+        <v>0.8835164835164835</v>
       </c>
       <c r="M123" t="n">
         <v>725224</v>
@@ -20222,7 +20302,7 @@
         <v>10000</v>
       </c>
       <c r="R123" t="n">
-        <v>0.6417965201465201</v>
+        <v>0.6417965201465202</v>
       </c>
       <c r="S123" t="n">
         <v>89743.33333333333</v>
@@ -20246,7 +20326,7 @@
         <v>50.14285714285715</v>
       </c>
       <c r="Z123" t="n">
-        <v>0.9547880690737834</v>
+        <v>0.9547880690737832</v>
       </c>
       <c r="AA123" t="n">
         <v>75241.2</v>
@@ -20424,7 +20504,7 @@
         <v>69.66666666666667</v>
       </c>
       <c r="Z124" t="n">
-        <v>0.967330270546197</v>
+        <v>0.9673302705461969</v>
       </c>
       <c r="AA124" t="n">
         <v>109723.8</v>
@@ -20560,7 +20640,7 @@
         <v>1</v>
       </c>
       <c r="L125" t="n">
-        <v>0.9657142857142855</v>
+        <v>0.9657142857142857</v>
       </c>
       <c r="M125" t="n">
         <v>343334</v>
@@ -20590,7 +20670,7 @@
         <v>1376</v>
       </c>
       <c r="V125" t="n">
-        <v>0.9714285714285715</v>
+        <v>0.9714285714285713</v>
       </c>
       <c r="W125" t="n">
         <v>1018.5</v>
@@ -20686,7 +20766,7 @@
         <v>133</v>
       </c>
       <c r="BB125" t="n">
-        <v>0.9314285714285714</v>
+        <v>0.9314285714285715</v>
       </c>
       <c r="BC125" t="n">
         <v>132</v>
@@ -20738,7 +20818,7 @@
         <v>1</v>
       </c>
       <c r="L126" t="n">
-        <v>0.920138888888889</v>
+        <v>0.9201388888888888</v>
       </c>
       <c r="M126" t="n">
         <v>506942.4</v>
@@ -20756,7 +20836,7 @@
         <v>10000</v>
       </c>
       <c r="R126" t="n">
-        <v>0.5819793750000001</v>
+        <v>0.581979375</v>
       </c>
       <c r="S126" t="n">
         <v>53883.8</v>
@@ -20916,7 +20996,7 @@
         <v>1</v>
       </c>
       <c r="L127" t="n">
-        <v>0.8682745825602968</v>
+        <v>0.8682745825602969</v>
       </c>
       <c r="M127" t="n">
         <v>833790.8333333334</v>
@@ -20934,7 +21014,7 @@
         <v>10000</v>
       </c>
       <c r="R127" t="n">
-        <v>0.6509251082251082</v>
+        <v>0.6509251082251083</v>
       </c>
       <c r="S127" t="n">
         <v>100794</v>
@@ -21030,7 +21110,7 @@
         <v>100</v>
       </c>
       <c r="AX127" t="n">
-        <v>0.6838280766852195</v>
+        <v>0.6838280766852196</v>
       </c>
       <c r="AY127" t="n">
         <v>9761.333333333334</v>
@@ -21094,7 +21174,7 @@
         <v>1</v>
       </c>
       <c r="L128" t="n">
-        <v>0.9640387275242046</v>
+        <v>0.9640387275242047</v>
       </c>
       <c r="M128" t="n">
         <v>1161333.2</v>
@@ -21112,7 +21192,7 @@
         <v>10000</v>
       </c>
       <c r="R128" t="n">
-        <v>0.7216356016597512</v>
+        <v>0.721635601659751</v>
       </c>
       <c r="S128" t="n">
         <v>147594.6</v>
@@ -21136,7 +21216,7 @@
         <v>65.33333333333333</v>
       </c>
       <c r="Z128" t="n">
-        <v>0.9266943291839559</v>
+        <v>0.9266943291839557</v>
       </c>
       <c r="AA128" t="n">
         <v>123515.6</v>
@@ -21220,7 +21300,7 @@
         <v>133</v>
       </c>
       <c r="BB128" t="n">
-        <v>0.966804979253112</v>
+        <v>0.9668049792531122</v>
       </c>
       <c r="BC128" t="n">
         <v>436</v>
@@ -21272,7 +21352,7 @@
         <v>1</v>
       </c>
       <c r="L129" t="n">
-        <v>0.971563981042654</v>
+        <v>0.9715639810426541</v>
       </c>
       <c r="M129" t="n">
         <v>376590.8</v>
@@ -21284,13 +21364,13 @@
         <v>9828.799999999999</v>
       </c>
       <c r="P129" t="n">
-        <v>0.961137440758294</v>
+        <v>0.9611374407582938</v>
       </c>
       <c r="Q129" t="n">
         <v>10000</v>
       </c>
       <c r="R129" t="n">
-        <v>0.4935581042654028</v>
+        <v>0.4935581042654029</v>
       </c>
       <c r="S129" t="n">
         <v>33212</v>
@@ -21386,7 +21466,7 @@
         <v>100</v>
       </c>
       <c r="AX129" t="n">
-        <v>0.5128120063191154</v>
+        <v>0.5128120063191153</v>
       </c>
       <c r="AY129" t="n">
         <v>3230</v>
@@ -21450,7 +21530,7 @@
         <v>1</v>
       </c>
       <c r="L130" t="n">
-        <v>0.8204334365325078</v>
+        <v>0.8204334365325077</v>
       </c>
       <c r="M130" t="n">
         <v>562724.1428571428</v>
@@ -21468,7 +21548,7 @@
         <v>10000</v>
       </c>
       <c r="R130" t="n">
-        <v>0.6060703670942059</v>
+        <v>0.6060703670942061</v>
       </c>
       <c r="S130" t="n">
         <v>59320.71428571428</v>
@@ -21628,7 +21708,7 @@
         <v>1</v>
       </c>
       <c r="L131" t="n">
-        <v>0.8885135135135135</v>
+        <v>0.8885135135135134</v>
       </c>
       <c r="M131" t="n">
         <v>935892.1666666666</v>
@@ -21640,7 +21720,7 @@
         <v>9816.5</v>
       </c>
       <c r="P131" t="n">
-        <v>0.9797297297297297</v>
+        <v>0.9797297297297298</v>
       </c>
       <c r="Q131" t="n">
         <v>10000</v>
@@ -21670,7 +21750,7 @@
         <v>64.57142857142857</v>
       </c>
       <c r="Z131" t="n">
-        <v>0.9464285714285713</v>
+        <v>0.9464285714285714</v>
       </c>
       <c r="AA131" t="n">
         <v>93654.60000000001</v>
@@ -21682,7 +21762,7 @@
         <v>1147</v>
       </c>
       <c r="AD131" t="n">
-        <v>0.9902027027027026</v>
+        <v>0.9902027027027028</v>
       </c>
       <c r="AE131" t="n">
         <v>4972.666666666667</v>
@@ -21806,7 +21886,7 @@
         <v>1</v>
       </c>
       <c r="L132" t="n">
-        <v>0.8148584905660379</v>
+        <v>0.8148584905660378</v>
       </c>
       <c r="M132" t="n">
         <v>1308466.6</v>
@@ -21848,7 +21928,7 @@
         <v>82.83333333333333</v>
       </c>
       <c r="Z132" t="n">
-        <v>0.9650157232704403</v>
+        <v>0.9650157232704402</v>
       </c>
       <c r="AA132" t="n">
         <v>137300.2</v>
@@ -21996,13 +22076,13 @@
         <v>9910.666666666666</v>
       </c>
       <c r="P133" t="n">
-        <v>0.9532775453277545</v>
+        <v>0.9532775453277544</v>
       </c>
       <c r="Q133" t="n">
         <v>10000</v>
       </c>
       <c r="R133" t="n">
-        <v>0.5304758019525802</v>
+        <v>0.5304758019525803</v>
       </c>
       <c r="S133" t="n">
         <v>35929.83333333334</v>
@@ -22026,7 +22106,7 @@
         <v>57.71428571428572</v>
       </c>
       <c r="Z133" t="n">
-        <v>0.8732815301852959</v>
+        <v>0.873281530185296</v>
       </c>
       <c r="AA133" t="n">
         <v>30461.6</v>
@@ -22162,7 +22242,7 @@
         <v>1</v>
       </c>
       <c r="L134" t="n">
-        <v>0.8610354223433243</v>
+        <v>0.8610354223433242</v>
       </c>
       <c r="M134" t="n">
         <v>616045.6</v>
@@ -22174,7 +22254,7 @@
         <v>9907.6</v>
       </c>
       <c r="P134" t="n">
-        <v>0.9340599455040873</v>
+        <v>0.9340599455040872</v>
       </c>
       <c r="Q134" t="n">
         <v>10000</v>
@@ -22340,7 +22420,7 @@
         <v>1</v>
       </c>
       <c r="L135" t="n">
-        <v>0.8271604938271604</v>
+        <v>0.8271604938271605</v>
       </c>
       <c r="M135" t="n">
         <v>1042123.2</v>
@@ -22370,7 +22450,7 @@
         <v>1376</v>
       </c>
       <c r="V135" t="n">
-        <v>0.9922839506172838</v>
+        <v>0.992283950617284</v>
       </c>
       <c r="W135" t="n">
         <v>7954.666666666667</v>
@@ -22394,7 +22474,7 @@
         <v>1147</v>
       </c>
       <c r="AD135" t="n">
-        <v>0.9882716049382715</v>
+        <v>0.9882716049382717</v>
       </c>
       <c r="AE135" t="n">
         <v>5165.666666666667</v>
@@ -22536,7 +22616,7 @@
         <v>10000</v>
       </c>
       <c r="R136" t="n">
-        <v>0.7425841866028708</v>
+        <v>0.7425841866028707</v>
       </c>
       <c r="S136" t="n">
         <v>183335</v>
@@ -22548,7 +22628,7 @@
         <v>1376</v>
       </c>
       <c r="V136" t="n">
-        <v>0.9669856459330143</v>
+        <v>0.9669856459330145</v>
       </c>
       <c r="W136" t="n">
         <v>10763</v>
@@ -22560,7 +22640,7 @@
         <v>82.5</v>
       </c>
       <c r="Z136" t="n">
-        <v>0.9665071770334929</v>
+        <v>0.9665071770334928</v>
       </c>
       <c r="AA136" t="n">
         <v>153304.8</v>
@@ -22575,16 +22655,16 @@
         <v>0.982775119617225</v>
       </c>
       <c r="AE136" t="n">
-        <v>10224</v>
+        <v>9365.25</v>
       </c>
       <c r="AF136" t="n">
-        <v>0.0006940364837646484</v>
+        <v>0.0006520748138427734</v>
       </c>
       <c r="AG136" t="n">
-        <v>78.33333333333333</v>
+        <v>71.75</v>
       </c>
       <c r="AH136" t="n">
-        <v>0.9505582137161085</v>
+        <v>0.9458732057416268</v>
       </c>
       <c r="AI136" t="n">
         <v>147817.5</v>
@@ -22647,16 +22727,16 @@
         <v>0.9633173843700159</v>
       </c>
       <c r="BC136" t="n">
-        <v>1322</v>
+        <v>997</v>
       </c>
       <c r="BD136" t="n">
-        <v>9.703636169433594e-05</v>
+        <v>9.107589721679688e-05</v>
       </c>
       <c r="BE136" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="BF136" t="n">
-        <v>0.7811004784688995</v>
+        <v>0.7721291866028708</v>
       </c>
     </row>
     <row r="137">
@@ -22696,7 +22776,7 @@
         <v>1</v>
       </c>
       <c r="L137" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="M137" t="n">
         <v>438762.4</v>
@@ -22714,7 +22794,7 @@
         <v>10000</v>
       </c>
       <c r="R137" t="n">
-        <v>0.5340505098039215</v>
+        <v>0.5340505098039217</v>
       </c>
       <c r="S137" t="n">
         <v>38726.2</v>
@@ -22822,7 +22902,7 @@
         <v>133</v>
       </c>
       <c r="BB137" t="n">
-        <v>0.9712418300653595</v>
+        <v>0.9712418300653596</v>
       </c>
       <c r="BC137" t="n">
         <v>146</v>
@@ -22874,7 +22954,7 @@
         <v>1</v>
       </c>
       <c r="L138" t="n">
-        <v>0.9043927648578812</v>
+        <v>0.9043927648578811</v>
       </c>
       <c r="M138" t="n">
         <v>677645.6</v>
@@ -22892,7 +22972,7 @@
         <v>10000</v>
       </c>
       <c r="R138" t="n">
-        <v>0.6075326614987081</v>
+        <v>0.607532661498708</v>
       </c>
       <c r="S138" t="n">
         <v>71810</v>
@@ -23070,7 +23150,7 @@
         <v>10000</v>
       </c>
       <c r="R139" t="n">
-        <v>0.703405138888889</v>
+        <v>0.7034051388888889</v>
       </c>
       <c r="S139" t="n">
         <v>137932.2</v>
@@ -23230,7 +23310,7 @@
         <v>1</v>
       </c>
       <c r="L140" t="n">
-        <v>0.9277899343544858</v>
+        <v>0.9277899343544856</v>
       </c>
       <c r="M140" t="n">
         <v>1622101.4</v>
@@ -23272,7 +23352,7 @@
         <v>78.83333333333333</v>
       </c>
       <c r="Z140" t="n">
-        <v>0.961524434719183</v>
+        <v>0.9615244347191831</v>
       </c>
       <c r="AA140" t="n">
         <v>169398</v>
@@ -23426,7 +23506,7 @@
         <v>10000</v>
       </c>
       <c r="R141" t="n">
-        <v>0.5179644951140064</v>
+        <v>0.5179644951140066</v>
       </c>
       <c r="S141" t="n">
         <v>42864.66666666666</v>
@@ -23450,7 +23530,7 @@
         <v>113.1428571428571</v>
       </c>
       <c r="Z141" t="n">
-        <v>0.9343880874825501</v>
+        <v>0.93438808748255</v>
       </c>
       <c r="AA141" t="n">
         <v>36223.2</v>
@@ -23586,7 +23666,7 @@
         <v>1</v>
       </c>
       <c r="L142" t="n">
-        <v>0.9121621621621621</v>
+        <v>0.9121621621621622</v>
       </c>
       <c r="M142" t="n">
         <v>738711</v>
@@ -23604,7 +23684,7 @@
         <v>10000</v>
       </c>
       <c r="R142" t="n">
-        <v>0.5920934684684686</v>
+        <v>0.5920934684684684</v>
       </c>
       <c r="S142" t="n">
         <v>78694.2</v>
@@ -23806,7 +23886,7 @@
         <v>114.1666666666667</v>
       </c>
       <c r="Z143" t="n">
-        <v>0.9689480354879595</v>
+        <v>0.9689480354879594</v>
       </c>
       <c r="AA143" t="n">
         <v>126948</v>
@@ -23830,7 +23910,7 @@
         <v>69.33333333333333</v>
       </c>
       <c r="AH143" t="n">
-        <v>0.8648077735530207</v>
+        <v>0.8648077735530206</v>
       </c>
       <c r="AI143" t="n">
         <v>127012</v>
@@ -23872,7 +23952,7 @@
         <v>100</v>
       </c>
       <c r="AV143" t="n">
-        <v>0.8728348119983101</v>
+        <v>0.87283481199831</v>
       </c>
       <c r="AW143" t="n">
         <v>100</v>
@@ -23890,7 +23970,7 @@
         <v>133</v>
       </c>
       <c r="BB143" t="n">
-        <v>0.9615547106041401</v>
+        <v>0.9615547106041403</v>
       </c>
       <c r="BC143" t="n">
         <v>452</v>
@@ -23972,7 +24052,7 @@
         <v>1376</v>
       </c>
       <c r="V144" t="n">
-        <v>0.9932528869858571</v>
+        <v>0.993252886985857</v>
       </c>
       <c r="W144" t="n">
         <v>18928.5</v>
@@ -23999,16 +24079,16 @@
         <v>0.9965485921889192</v>
       </c>
       <c r="AE144" t="n">
-        <v>19127</v>
+        <v>17617.75</v>
       </c>
       <c r="AF144" t="n">
-        <v>0.00124812126159668</v>
+        <v>0.001138091087341309</v>
       </c>
       <c r="AG144" t="n">
-        <v>120</v>
+        <v>110.5</v>
       </c>
       <c r="AH144" t="n">
-        <v>0.98698153194066</v>
+        <v>0.9688919164396004</v>
       </c>
       <c r="AI144" t="n">
         <v>178934</v>
@@ -24071,16 +24151,16 @@
         <v>0.9839539812291855</v>
       </c>
       <c r="BC144" t="n">
-        <v>660</v>
+        <v>978</v>
       </c>
       <c r="BD144" t="n">
-        <v>5.197525024414062e-05</v>
+        <v>9.548664093017577e-05</v>
       </c>
       <c r="BE144" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BF144" t="n">
-        <v>0.6475930971843779</v>
+        <v>0.726158038147139</v>
       </c>
     </row>
     <row r="145">
@@ -24120,7 +24200,7 @@
         <v>1</v>
       </c>
       <c r="L145" t="n">
-        <v>0.987538940809969</v>
+        <v>0.9875389408099688</v>
       </c>
       <c r="M145" t="n">
         <v>509721.8</v>
@@ -24177,16 +24257,16 @@
         <v>0.9881619937694704</v>
       </c>
       <c r="AE145" t="n">
-        <v>467</v>
+        <v>409.5</v>
       </c>
       <c r="AF145" t="n">
-        <v>3.600120544433594e-05</v>
+        <v>3.552436828613281e-05</v>
       </c>
       <c r="AG145" t="n">
-        <v>14.66666666666667</v>
+        <v>12.75</v>
       </c>
       <c r="AH145" t="n">
-        <v>0.7071651090342678</v>
+        <v>0.7289719626168224</v>
       </c>
       <c r="AI145" t="n">
         <v>50999.5</v>
@@ -24249,16 +24329,16 @@
         <v>0.9480789200415369</v>
       </c>
       <c r="BC145" t="n">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="BD145" t="n">
-        <v>2.789497375488281e-05</v>
+        <v>2.598762512207031e-05</v>
       </c>
       <c r="BE145" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF145" t="n">
-        <v>0.67601246105919</v>
+        <v>0.6775700934579438</v>
       </c>
     </row>
     <row r="146">
@@ -24298,7 +24378,7 @@
         <v>1</v>
       </c>
       <c r="L146" t="n">
-        <v>0.8900862068965518</v>
+        <v>0.8900862068965517</v>
       </c>
       <c r="M146" t="n">
         <v>799121.6</v>
@@ -24310,13 +24390,13 @@
         <v>9984.6</v>
       </c>
       <c r="P146" t="n">
-        <v>0.9448275862068967</v>
+        <v>0.9448275862068964</v>
       </c>
       <c r="Q146" t="n">
         <v>10000</v>
       </c>
       <c r="R146" t="n">
-        <v>0.6016461206896551</v>
+        <v>0.6016461206896552</v>
       </c>
       <c r="S146" t="n">
         <v>85550</v>
@@ -24424,7 +24504,7 @@
         <v>133</v>
       </c>
       <c r="BB146" t="n">
-        <v>0.9604885057471263</v>
+        <v>0.9604885057471265</v>
       </c>
       <c r="BC146" t="n">
         <v>141</v>
@@ -24494,7 +24574,7 @@
         <v>10000</v>
       </c>
       <c r="R147" t="n">
-        <v>0.7221523724792408</v>
+        <v>0.7221523724792407</v>
       </c>
       <c r="S147" t="n">
         <v>165479.3333333333</v>
@@ -24533,16 +24613,16 @@
         <v>0.9893238434163703</v>
       </c>
       <c r="AE147" t="n">
-        <v>10766</v>
+        <v>11040</v>
       </c>
       <c r="AF147" t="n">
-        <v>0.0007481575012207031</v>
+        <v>0.0007566213607788086</v>
       </c>
       <c r="AG147" t="n">
-        <v>91.66666666666667</v>
+        <v>94</v>
       </c>
       <c r="AH147" t="n">
-        <v>0.9920917358639779</v>
+        <v>0.9801304863582444</v>
       </c>
       <c r="AI147" t="n">
         <v>138017</v>
@@ -24605,16 +24685,16 @@
         <v>0.9679715302491103</v>
       </c>
       <c r="BC147" t="n">
-        <v>1546</v>
+        <v>1019.5</v>
       </c>
       <c r="BD147" t="n">
-        <v>0.0001151561737060547</v>
+        <v>8.761882781982422e-05</v>
       </c>
       <c r="BE147" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="BF147" t="n">
-        <v>0.8730723606168446</v>
+        <v>0.8013048635824436</v>
       </c>
     </row>
     <row r="148">
@@ -24654,7 +24734,7 @@
         <v>1</v>
       </c>
       <c r="L148" t="n">
-        <v>0.9044534412955468</v>
+        <v>0.9044534412955467</v>
       </c>
       <c r="M148" t="n">
         <v>1957961.333333333</v>
@@ -24672,7 +24752,7 @@
         <v>10000</v>
       </c>
       <c r="R148" t="n">
-        <v>0.764188556005398</v>
+        <v>0.7641885560053981</v>
       </c>
       <c r="S148" t="n">
         <v>245319.8333333333</v>
@@ -24684,7 +24764,7 @@
         <v>1376</v>
       </c>
       <c r="V148" t="n">
-        <v>0.9946018893387315</v>
+        <v>0.9946018893387314</v>
       </c>
       <c r="W148" t="n">
         <v>19942.57142857143</v>
@@ -24696,7 +24776,7 @@
         <v>113.7142857142857</v>
       </c>
       <c r="Z148" t="n">
-        <v>0.9674956622325045</v>
+        <v>0.9674956622325043</v>
       </c>
       <c r="AA148" t="n">
         <v>204927.6</v>
@@ -25010,7 +25090,7 @@
         <v>1</v>
       </c>
       <c r="L150" t="n">
-        <v>0.8904382470119524</v>
+        <v>0.8904382470119522</v>
       </c>
       <c r="M150" t="n">
         <v>869726.8</v>
@@ -25022,7 +25102,7 @@
         <v>9995.4</v>
       </c>
       <c r="P150" t="n">
-        <v>0.9227091633466135</v>
+        <v>0.9227091633466136</v>
       </c>
       <c r="Q150" t="n">
         <v>10000</v>
@@ -25052,7 +25132,7 @@
         <v>85.66666666666667</v>
       </c>
       <c r="Z150" t="n">
-        <v>0.956839309428951</v>
+        <v>0.9568393094289509</v>
       </c>
       <c r="AA150" t="n">
         <v>78692</v>
@@ -25188,7 +25268,7 @@
         <v>1</v>
       </c>
       <c r="L151" t="n">
-        <v>0.8985200845665962</v>
+        <v>0.8985200845665963</v>
       </c>
       <c r="M151" t="n">
         <v>1499281.8</v>
@@ -25296,7 +25376,7 @@
         <v>100</v>
       </c>
       <c r="AV151" t="n">
-        <v>0.8678646934460886</v>
+        <v>0.8678646934460889</v>
       </c>
       <c r="AW151" t="n">
         <v>100</v>
@@ -25384,7 +25464,7 @@
         <v>10000</v>
       </c>
       <c r="R152" t="n">
-        <v>0.7757025343511451</v>
+        <v>0.775702534351145</v>
       </c>
       <c r="S152" t="n">
         <v>267395.8</v>
@@ -25432,7 +25512,7 @@
         <v>126.3333333333333</v>
       </c>
       <c r="AH152" t="n">
-        <v>0.9842239185750635</v>
+        <v>0.9842239185750636</v>
       </c>
       <c r="AI152" t="n">
         <v>213008</v>
@@ -25544,7 +25624,7 @@
         <v>1</v>
       </c>
       <c r="L153" t="n">
-        <v>0.9786666666666666</v>
+        <v>0.9786666666666667</v>
       </c>
       <c r="M153" t="n">
         <v>589823.6</v>
@@ -25562,7 +25642,7 @@
         <v>10000</v>
       </c>
       <c r="R153" t="n">
-        <v>0.5529699733333334</v>
+        <v>0.5529699733333333</v>
       </c>
       <c r="S153" t="n">
         <v>53902.8</v>
@@ -25601,16 +25681,16 @@
         <v>0.96</v>
       </c>
       <c r="AE153" t="n">
-        <v>847</v>
+        <v>830.2</v>
       </c>
       <c r="AF153" t="n">
         <v>6.413459777832031e-05</v>
       </c>
       <c r="AG153" t="n">
-        <v>22.66666666666667</v>
+        <v>22.2</v>
       </c>
       <c r="AH153" t="n">
-        <v>0.7831111111111112</v>
+        <v>0.7658666666666667</v>
       </c>
       <c r="AI153" t="n">
         <v>59013</v>
@@ -25652,7 +25732,7 @@
         <v>100</v>
       </c>
       <c r="AV153" t="n">
-        <v>0.7946666666666667</v>
+        <v>0.7946666666666666</v>
       </c>
       <c r="AW153" t="n">
         <v>100</v>
@@ -25673,16 +25753,16 @@
         <v>0.8879999999999999</v>
       </c>
       <c r="BC153" t="n">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="BD153" t="n">
-        <v>2.694129943847656e-05</v>
+        <v>2.884864807128906e-05</v>
       </c>
       <c r="BE153" t="n">
-        <v>3</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="BF153" t="n">
-        <v>0.4586666666666667</v>
+        <v>0.5928888888888889</v>
       </c>
     </row>
     <row r="154">
@@ -25734,7 +25814,7 @@
         <v>9997.833333333334</v>
       </c>
       <c r="P154" t="n">
-        <v>0.9442134442134443</v>
+        <v>0.9442134442134441</v>
       </c>
       <c r="Q154" t="n">
         <v>10000</v>
@@ -25776,7 +25856,7 @@
         <v>1147</v>
       </c>
       <c r="AD154" t="n">
-        <v>0.9800415800415803</v>
+        <v>0.98004158004158</v>
       </c>
       <c r="AE154" t="n">
         <v>3516</v>
@@ -25900,7 +25980,7 @@
         <v>1</v>
       </c>
       <c r="L155" t="n">
-        <v>0.8737574552683898</v>
+        <v>0.8737574552683897</v>
       </c>
       <c r="M155" t="n">
         <v>1629689.2</v>
@@ -25912,13 +25992,13 @@
         <v>9997.6</v>
       </c>
       <c r="P155" t="n">
-        <v>0.9463220675944335</v>
+        <v>0.9463220675944333</v>
       </c>
       <c r="Q155" t="n">
         <v>10000</v>
       </c>
       <c r="R155" t="n">
-        <v>0.7059880318091452</v>
+        <v>0.705988031809145</v>
       </c>
       <c r="S155" t="n">
         <v>197109.2</v>
@@ -26078,7 +26158,7 @@
         <v>1</v>
       </c>
       <c r="L156" t="n">
-        <v>0.9096820809248556</v>
+        <v>0.9096820809248555</v>
       </c>
       <c r="M156" t="n">
         <v>2319603.2</v>
@@ -26096,7 +26176,7 @@
         <v>10000</v>
       </c>
       <c r="R156" t="n">
-        <v>0.7869251734104047</v>
+        <v>0.7869251734104046</v>
       </c>
       <c r="S156" t="n">
         <v>292108.6</v>
@@ -26861,13 +26941,13 @@
       </c>
       <c r="AD161" t="inlineStr"/>
       <c r="AE161" t="n">
-        <v>817</v>
+        <v>799.5</v>
       </c>
       <c r="AF161" t="n">
-        <v>5.7220458984375e-05</v>
+        <v>6.723403930664062e-05</v>
       </c>
       <c r="AG161" t="n">
-        <v>18.66666666666667</v>
+        <v>18.25</v>
       </c>
       <c r="AH161" t="inlineStr"/>
       <c r="AI161" t="n">
@@ -26919,13 +26999,13 @@
       </c>
       <c r="BB161" t="inlineStr"/>
       <c r="BC161" t="n">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="BD161" t="n">
-        <v>2.789497375488281e-05</v>
+        <v>3.910064697265625e-05</v>
       </c>
       <c r="BE161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF161" t="inlineStr"/>
     </row>
@@ -27855,13 +27935,13 @@
       </c>
       <c r="AD168" t="inlineStr"/>
       <c r="AE168" t="n">
-        <v>45020</v>
+        <v>44114.75</v>
       </c>
       <c r="AF168" t="n">
-        <v>0.002286911010742188</v>
+        <v>0.002469301223754883</v>
       </c>
       <c r="AG168" t="n">
-        <v>169.6666666666667</v>
+        <v>166.25</v>
       </c>
       <c r="AH168" t="inlineStr"/>
       <c r="AI168" t="n">
@@ -27913,13 +27993,13 @@
       </c>
       <c r="BB168" t="inlineStr"/>
       <c r="BC168" t="n">
-        <v>2417</v>
+        <v>2549.5</v>
       </c>
       <c r="BD168" t="n">
-        <v>0.0001657009124755859</v>
+        <v>0.0001763105392456055</v>
       </c>
       <c r="BE168" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="BF168" t="inlineStr"/>
     </row>
@@ -29133,13 +29213,13 @@
       </c>
       <c r="AD177" t="inlineStr"/>
       <c r="AE177" t="n">
-        <v>2505</v>
+        <v>2407</v>
       </c>
       <c r="AF177" t="n">
-        <v>0.0001690387725830078</v>
+        <v>0.0001555681228637695</v>
       </c>
       <c r="AG177" t="n">
-        <v>44</v>
+        <v>42.25</v>
       </c>
       <c r="AH177" t="inlineStr"/>
       <c r="AI177" t="n">
@@ -29194,7 +29274,7 @@
         <v>143</v>
       </c>
       <c r="BD177" t="n">
-        <v>2.980232238769531e-05</v>
+        <v>2.992153167724609e-05</v>
       </c>
       <c r="BE177" t="n">
         <v>2</v>
@@ -31121,13 +31201,13 @@
       </c>
       <c r="AD191" t="inlineStr"/>
       <c r="AE191" t="n">
-        <v>71005.66666666667</v>
+        <v>68634</v>
       </c>
       <c r="AF191" t="n">
-        <v>0.003616809844970703</v>
+        <v>0.004175305366516113</v>
       </c>
       <c r="AG191" t="n">
-        <v>266.6666666666667</v>
+        <v>257.75</v>
       </c>
       <c r="AH191" t="inlineStr"/>
       <c r="AI191" t="n">
@@ -31179,13 +31259,13 @@
       </c>
       <c r="BB191" t="inlineStr"/>
       <c r="BC191" t="n">
-        <v>3762</v>
+        <v>3496</v>
       </c>
       <c r="BD191" t="n">
-        <v>0.0002460479736328125</v>
+        <v>0.0002630949020385742</v>
       </c>
       <c r="BE191" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BF191" t="inlineStr"/>
     </row>
@@ -31263,13 +31343,13 @@
       </c>
       <c r="AD192" t="inlineStr"/>
       <c r="AE192" t="n">
-        <v>108332.3333333333</v>
+        <v>113605.5</v>
       </c>
       <c r="AF192" t="n">
-        <v>0.007107019424438477</v>
+        <v>0.007331371307373047</v>
       </c>
       <c r="AG192" t="n">
-        <v>272</v>
+        <v>285.25</v>
       </c>
       <c r="AH192" t="inlineStr"/>
       <c r="AI192" t="n">
@@ -31321,13 +31401,13 @@
       </c>
       <c r="BB192" t="inlineStr"/>
       <c r="BC192" t="n">
-        <v>10388</v>
+        <v>7403</v>
       </c>
       <c r="BD192" t="n">
-        <v>0.0005958080291748047</v>
+        <v>0.00049591064453125</v>
       </c>
       <c r="BE192" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="BF192" t="inlineStr"/>
     </row>
@@ -32115,13 +32195,13 @@
       </c>
       <c r="AD198" t="inlineStr"/>
       <c r="AE198" t="n">
-        <v>26457.33333333333</v>
+        <v>25596.5</v>
       </c>
       <c r="AF198" t="n">
-        <v>0.00161290168762207</v>
+        <v>0.001485943794250488</v>
       </c>
       <c r="AG198" t="n">
-        <v>176</v>
+        <v>170.25</v>
       </c>
       <c r="AH198" t="inlineStr"/>
       <c r="AI198" t="n">
@@ -32173,13 +32253,13 @@
       </c>
       <c r="BB198" t="inlineStr"/>
       <c r="BC198" t="n">
-        <v>638</v>
+        <v>938</v>
       </c>
       <c r="BD198" t="n">
-        <v>6.318092346191406e-05</v>
+        <v>8.118152618408203e-05</v>
       </c>
       <c r="BE198" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BF198" t="inlineStr"/>
     </row>
@@ -33393,13 +33473,13 @@
       </c>
       <c r="AD207" t="inlineStr"/>
       <c r="AE207" t="n">
-        <v>124594.6666666667</v>
+        <v>129064</v>
       </c>
       <c r="AF207" t="n">
-        <v>0.008275985717773438</v>
+        <v>0.008428454399108887</v>
       </c>
       <c r="AG207" t="n">
-        <v>371.6666666666667</v>
+        <v>385</v>
       </c>
       <c r="AH207" t="inlineStr"/>
       <c r="AI207" t="n">
@@ -33451,13 +33531,13 @@
       </c>
       <c r="BB207" t="inlineStr"/>
       <c r="BC207" t="n">
-        <v>5069</v>
+        <v>5236.5</v>
       </c>
       <c r="BD207" t="n">
-        <v>0.0003230571746826172</v>
+        <v>0.0003430843353271484</v>
       </c>
       <c r="BE207" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="BF207" t="inlineStr"/>
     </row>
@@ -34813,13 +34893,13 @@
       </c>
       <c r="AD217" t="inlineStr"/>
       <c r="AE217" t="n">
-        <v>7880</v>
+        <v>8226.5</v>
       </c>
       <c r="AF217" t="n">
-        <v>0.0005080699920654297</v>
+        <v>0.0005315542221069336</v>
       </c>
       <c r="AG217" t="n">
-        <v>79</v>
+        <v>82.5</v>
       </c>
       <c r="AH217" t="inlineStr"/>
       <c r="AI217" t="n">
@@ -34871,13 +34951,13 @@
       </c>
       <c r="BB217" t="inlineStr"/>
       <c r="BC217" t="n">
-        <v>536</v>
+        <v>486.5</v>
       </c>
       <c r="BD217" t="n">
-        <v>5.91278076171875e-05</v>
+        <v>6.258487701416016e-05</v>
       </c>
       <c r="BE217" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BF217" t="inlineStr"/>
     </row>
@@ -35097,13 +35177,13 @@
       </c>
       <c r="AD219" t="inlineStr"/>
       <c r="AE219" t="n">
-        <v>170096.6666666667</v>
+        <v>144739.5</v>
       </c>
       <c r="AF219" t="n">
-        <v>0.01079916954040527</v>
+        <v>0.009483695030212401</v>
       </c>
       <c r="AG219" t="n">
-        <v>433.6666666666667</v>
+        <v>369</v>
       </c>
       <c r="AH219" t="inlineStr"/>
       <c r="AI219" t="n">
@@ -35155,13 +35235,13 @@
       </c>
       <c r="BB219" t="inlineStr"/>
       <c r="BC219" t="n">
-        <v>6711</v>
+        <v>4947</v>
       </c>
       <c r="BD219" t="n">
-        <v>0.0003898143768310547</v>
+        <v>0.0003018379211425781</v>
       </c>
       <c r="BE219" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="BF219" t="inlineStr"/>
     </row>
@@ -35807,13 +35887,13 @@
       </c>
       <c r="AD224" t="inlineStr"/>
       <c r="AE224" t="n">
-        <v>202463</v>
+        <v>215885.25</v>
       </c>
       <c r="AF224" t="n">
-        <v>0.01258420944213867</v>
+        <v>0.01426911354064941</v>
       </c>
       <c r="AG224" t="n">
-        <v>328</v>
+        <v>349.75</v>
       </c>
       <c r="AH224" t="inlineStr"/>
       <c r="AI224" t="n">
@@ -35865,13 +35945,13 @@
       </c>
       <c r="BB224" t="inlineStr"/>
       <c r="BC224" t="n">
-        <v>28436</v>
+        <v>21649</v>
       </c>
       <c r="BD224" t="n">
-        <v>0.001719236373901367</v>
+        <v>0.001331090927124023</v>
       </c>
       <c r="BE224" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="BF224" t="inlineStr"/>
     </row>
@@ -35949,13 +36029,13 @@
       </c>
       <c r="AD225" t="inlineStr"/>
       <c r="AE225" t="n">
-        <v>12089.33333333333</v>
+        <v>11780.5</v>
       </c>
       <c r="AF225" t="n">
-        <v>0.0007700920104980469</v>
+        <v>0.0007624626159667969</v>
       </c>
       <c r="AG225" t="n">
-        <v>110.3333333333333</v>
+        <v>107.5</v>
       </c>
       <c r="AH225" t="inlineStr"/>
       <c r="AI225" t="n">
@@ -36007,13 +36087,13 @@
       </c>
       <c r="BB225" t="inlineStr"/>
       <c r="BC225" t="n">
-        <v>481</v>
+        <v>699</v>
       </c>
       <c r="BD225" t="n">
-        <v>5.817413330078125e-05</v>
+        <v>8.296966552734372e-05</v>
       </c>
       <c r="BE225" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BF225" t="inlineStr"/>
     </row>
@@ -36801,13 +36881,13 @@
       </c>
       <c r="AD231" t="inlineStr"/>
       <c r="AE231" t="n">
-        <v>179629.3333333333</v>
+        <v>196697</v>
       </c>
       <c r="AF231" t="n">
-        <v>0.01118016242980957</v>
+        <v>0.01195204257965088</v>
       </c>
       <c r="AG231" t="n">
-        <v>396.3333333333333</v>
+        <v>434</v>
       </c>
       <c r="AH231" t="inlineStr"/>
       <c r="AI231" t="n">
@@ -36859,13 +36939,13 @@
       </c>
       <c r="BB231" t="inlineStr"/>
       <c r="BC231" t="n">
-        <v>13189</v>
+        <v>14548</v>
       </c>
       <c r="BD231" t="n">
-        <v>0.0008020401000976562</v>
+        <v>0.0009140968322753906</v>
       </c>
       <c r="BE231" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="BF231" t="inlineStr"/>
     </row>
@@ -38221,13 +38301,13 @@
       </c>
       <c r="AD241" t="inlineStr"/>
       <c r="AE241" t="n">
-        <v>20725.33333333333</v>
+        <v>18804</v>
       </c>
       <c r="AF241" t="n">
-        <v>0.001312971115112305</v>
+        <v>0.001227021217346191</v>
       </c>
       <c r="AG241" t="n">
-        <v>157.6666666666667</v>
+        <v>143</v>
       </c>
       <c r="AH241" t="inlineStr"/>
       <c r="AI241" t="n">
@@ -38279,13 +38359,13 @@
       </c>
       <c r="BB241" t="inlineStr"/>
       <c r="BC241" t="n">
-        <v>835</v>
+        <v>1424.5</v>
       </c>
       <c r="BD241" t="n">
-        <v>7.605552673339844e-05</v>
+        <v>0.0001575946807861328</v>
       </c>
       <c r="BE241" t="n">
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="BF241" t="inlineStr"/>
     </row>
@@ -39357,13 +39437,13 @@
       </c>
       <c r="AD249" t="inlineStr"/>
       <c r="AE249" t="n">
-        <v>31536.66666666667</v>
+        <v>30964.75</v>
       </c>
       <c r="AF249" t="n">
-        <v>0.001903772354125977</v>
+        <v>0.00208890438079834</v>
       </c>
       <c r="AG249" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AH249" t="inlineStr"/>
       <c r="AI249" t="n">
@@ -39415,13 +39495,13 @@
       </c>
       <c r="BB249" t="inlineStr"/>
       <c r="BC249" t="n">
-        <v>1767</v>
+        <v>1338</v>
       </c>
       <c r="BD249" t="n">
-        <v>0.0001320838928222656</v>
+        <v>0.0001205205917358398</v>
       </c>
       <c r="BE249" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BF249" t="inlineStr"/>
     </row>
@@ -39641,13 +39721,13 @@
       </c>
       <c r="AD251" t="inlineStr"/>
       <c r="AE251" t="n">
-        <v>355936</v>
+        <v>299972</v>
       </c>
       <c r="AF251" t="n">
-        <v>0.01959395408630371</v>
+        <v>0.01756525039672852</v>
       </c>
       <c r="AG251" t="n">
-        <v>628.6666666666666</v>
+        <v>529.8</v>
       </c>
       <c r="AH251" t="inlineStr"/>
       <c r="AI251" t="n">
@@ -39699,13 +39779,13 @@
       </c>
       <c r="BB251" t="inlineStr"/>
       <c r="BC251" t="n">
-        <v>28925</v>
+        <v>23076.33333333333</v>
       </c>
       <c r="BD251" t="n">
         <v>0.001781940460205078</v>
       </c>
       <c r="BE251" t="n">
-        <v>51</v>
+        <v>40.66666666666666</v>
       </c>
       <c r="BF251" t="inlineStr"/>
     </row>
@@ -39783,13 +39863,13 @@
       </c>
       <c r="AD252" t="inlineStr"/>
       <c r="AE252" t="n">
-        <v>501846.6666666667</v>
+        <v>505524.5</v>
       </c>
       <c r="AF252" t="n">
-        <v>0.02777791023254395</v>
+        <v>0.02903497219085693</v>
       </c>
       <c r="AG252" t="n">
-        <v>591.6666666666666</v>
+        <v>596</v>
       </c>
       <c r="AH252" t="inlineStr"/>
       <c r="AI252" t="n">
@@ -39841,13 +39921,13 @@
       </c>
       <c r="BB252" t="inlineStr"/>
       <c r="BC252" t="n">
-        <v>61969</v>
+        <v>52217</v>
       </c>
       <c r="BD252" t="n">
-        <v>0.003911018371582031</v>
+        <v>0.003203511238098145</v>
       </c>
       <c r="BE252" t="n">
-        <v>73</v>
+        <v>61.5</v>
       </c>
       <c r="BF252" t="inlineStr"/>
     </row>
@@ -40777,13 +40857,13 @@
       </c>
       <c r="AD259" t="inlineStr"/>
       <c r="AE259" t="n">
-        <v>331871.3333333333</v>
+        <v>352084</v>
       </c>
       <c r="AF259" t="n">
-        <v>0.02013921737670898</v>
+        <v>0.02125513553619385</v>
       </c>
       <c r="AG259" t="n">
-        <v>540.3333333333334</v>
+        <v>573.25</v>
       </c>
       <c r="AH259" t="inlineStr"/>
       <c r="AI259" t="n">
@@ -40835,13 +40915,13 @@
       </c>
       <c r="BB259" t="inlineStr"/>
       <c r="BC259" t="n">
-        <v>20939</v>
+        <v>28307</v>
       </c>
       <c r="BD259" t="n">
-        <v>0.001258134841918945</v>
+        <v>0.002029061317443848</v>
       </c>
       <c r="BE259" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="BF259" t="inlineStr"/>
     </row>
@@ -41061,13 +41141,13 @@
       </c>
       <c r="AD261" t="inlineStr"/>
       <c r="AE261" t="n">
-        <v>60804.66666666666</v>
+        <v>56940</v>
       </c>
       <c r="AF261" t="n">
-        <v>0.003553867340087891</v>
+        <v>0.003205895423889161</v>
       </c>
       <c r="AG261" t="n">
-        <v>324.6666666666667</v>
+        <v>304</v>
       </c>
       <c r="AH261" t="inlineStr"/>
       <c r="AI261" t="n">
@@ -41119,13 +41199,13 @@
       </c>
       <c r="BB261" t="inlineStr"/>
       <c r="BC261" t="n">
-        <v>993</v>
+        <v>899.5</v>
       </c>
       <c r="BD261" t="n">
-        <v>8.702278137207031e-05</v>
+        <v>8.296966552734375e-05</v>
       </c>
       <c r="BE261" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BF261" t="inlineStr"/>
     </row>
@@ -41487,13 +41567,13 @@
       </c>
       <c r="AD264" t="inlineStr"/>
       <c r="AE264" t="n">
-        <v>912590.6666666666</v>
+        <v>920579</v>
       </c>
       <c r="AF264" t="n">
-        <v>0.0504457950592041</v>
+        <v>0.0558394193649292</v>
       </c>
       <c r="AG264" t="n">
-        <v>818.3333333333334</v>
+        <v>825.5</v>
       </c>
       <c r="AH264" t="inlineStr"/>
       <c r="AI264" t="n">
@@ -41545,13 +41625,13 @@
       </c>
       <c r="BB264" t="inlineStr"/>
       <c r="BC264" t="n">
-        <v>126073</v>
+        <v>140010.5</v>
       </c>
       <c r="BD264" t="n">
-        <v>0.007352113723754883</v>
+        <v>0.009516119956970217</v>
       </c>
       <c r="BE264" t="n">
-        <v>113</v>
+        <v>125.5</v>
       </c>
       <c r="BF264" t="inlineStr"/>
     </row>
@@ -41771,13 +41851,13 @@
       </c>
       <c r="AD266" t="inlineStr"/>
       <c r="AE266" t="n">
-        <v>455980.3333333333</v>
+        <v>424598.75</v>
       </c>
       <c r="AF266" t="n">
-        <v>0.02699589729309082</v>
+        <v>0.02594947814941406</v>
       </c>
       <c r="AG266" t="n">
-        <v>1026.666666666667</v>
+        <v>956</v>
       </c>
       <c r="AH266" t="inlineStr"/>
       <c r="AI266" t="n">
@@ -41829,13 +41909,13 @@
       </c>
       <c r="BB266" t="inlineStr"/>
       <c r="BC266" t="n">
-        <v>12501</v>
+        <v>11613</v>
       </c>
       <c r="BD266" t="n">
-        <v>0.0007548332214355469</v>
+        <v>0.0007034540176391602</v>
       </c>
       <c r="BE266" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BF266" t="inlineStr"/>
     </row>
@@ -42765,13 +42845,13 @@
       </c>
       <c r="AD273" t="inlineStr"/>
       <c r="AE273" t="n">
-        <v>218089</v>
+        <v>218594</v>
       </c>
       <c r="AF273" t="n">
-        <v>0.01299405097961426</v>
+        <v>0.01334607601165771</v>
       </c>
       <c r="AG273" t="n">
-        <v>719.3333333333334</v>
+        <v>721</v>
       </c>
       <c r="AH273" t="inlineStr"/>
       <c r="AI273" t="n">
@@ -42823,13 +42903,13 @@
       </c>
       <c r="BB273" t="inlineStr"/>
       <c r="BC273" t="n">
-        <v>6137</v>
+        <v>5531</v>
       </c>
       <c r="BD273" t="n">
-        <v>0.0003960132598876953</v>
+        <v>0.0003609657287597656</v>
       </c>
       <c r="BE273" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BF273" t="inlineStr"/>
     </row>
@@ -43333,13 +43413,13 @@
       </c>
       <c r="AD277" t="inlineStr"/>
       <c r="AE277" t="n">
-        <v>314965.6666666667</v>
+        <v>320302.25</v>
       </c>
       <c r="AF277" t="n">
-        <v>0.01927018165588379</v>
+        <v>0.01968646049499512</v>
       </c>
       <c r="AG277" t="n">
-        <v>904.6666666666666</v>
+        <v>920</v>
       </c>
       <c r="AH277" t="inlineStr"/>
       <c r="AI277" t="n">
@@ -43391,13 +43471,13 @@
       </c>
       <c r="BB277" t="inlineStr"/>
       <c r="BC277" t="n">
-        <v>12610</v>
+        <v>11392</v>
       </c>
       <c r="BD277" t="n">
-        <v>0.0007390975952148438</v>
+        <v>0.0006936788558959961</v>
       </c>
       <c r="BE277" t="n">
-        <v>36</v>
+        <v>32.5</v>
       </c>
       <c r="BF277" t="inlineStr"/>
     </row>
@@ -45321,13 +45401,13 @@
       </c>
       <c r="AD291" t="inlineStr"/>
       <c r="AE291" t="n">
-        <v>4582716</v>
+        <v>4341694.4</v>
       </c>
       <c r="AF291" t="n">
         <v>0.2775828838348389</v>
       </c>
       <c r="AG291" t="n">
-        <v>2286.666666666667</v>
+        <v>2166.4</v>
       </c>
       <c r="AH291" t="inlineStr"/>
       <c r="AI291" t="n">
@@ -45379,13 +45459,13 @@
       </c>
       <c r="BB291" t="inlineStr"/>
       <c r="BC291" t="n">
-        <v>593315</v>
+        <v>606007</v>
       </c>
       <c r="BD291" t="n">
-        <v>0.03468871116638184</v>
+        <v>0.03934001922607422</v>
       </c>
       <c r="BE291" t="n">
-        <v>296</v>
+        <v>302.3333333333333</v>
       </c>
       <c r="BF291" t="inlineStr"/>
     </row>
@@ -45889,13 +45969,13 @@
       </c>
       <c r="AD295" t="inlineStr"/>
       <c r="AE295" t="n">
-        <v>4495773</v>
+        <v>4858618.5</v>
       </c>
       <c r="AF295" t="n">
-        <v>0.257875919342041</v>
+        <v>0.3193600177764893</v>
       </c>
       <c r="AG295" t="n">
-        <v>2012.333333333333</v>
+        <v>2174.75</v>
       </c>
       <c r="AH295" t="inlineStr"/>
       <c r="AI295" t="n">
@@ -45947,13 +46027,13 @@
       </c>
       <c r="BB295" t="inlineStr"/>
       <c r="BC295" t="n">
-        <v>913846</v>
+        <v>818901</v>
       </c>
       <c r="BD295" t="n">
-        <v>0.05281591415405273</v>
+        <v>0.04905498027801514</v>
       </c>
       <c r="BE295" t="n">
-        <v>409</v>
+        <v>366.5</v>
       </c>
       <c r="BF295" t="inlineStr"/>
     </row>
@@ -46457,13 +46537,13 @@
       </c>
       <c r="AD299" t="inlineStr"/>
       <c r="AE299" t="n">
-        <v>6646039.666666667</v>
+        <v>7160024.5</v>
       </c>
       <c r="AF299" t="n">
-        <v>0.3985419273376465</v>
+        <v>0.4210889339447021</v>
       </c>
       <c r="AG299" t="n">
-        <v>2683</v>
+        <v>2890.5</v>
       </c>
       <c r="AH299" t="inlineStr"/>
       <c r="AI299" t="n">
@@ -46515,13 +46595,13 @@
       </c>
       <c r="BB299" t="inlineStr"/>
       <c r="BC299" t="n">
-        <v>884438</v>
+        <v>877007</v>
       </c>
       <c r="BD299" t="n">
-        <v>0.05203008651733398</v>
+        <v>0.06131255626678467</v>
       </c>
       <c r="BE299" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BF299" t="inlineStr"/>
     </row>
@@ -47735,13 +47815,13 @@
       </c>
       <c r="AD308" t="inlineStr"/>
       <c r="AE308" t="n">
-        <v>212993993.6666667</v>
+        <v>233570899.5</v>
       </c>
       <c r="AF308" t="n">
-        <v>13.03860402107239</v>
+        <v>13.6317265033722</v>
       </c>
       <c r="AG308" t="n">
-        <v>14269</v>
+        <v>15647.5</v>
       </c>
       <c r="AH308" t="inlineStr"/>
       <c r="AI308" t="n">
@@ -47793,13 +47873,13 @@
       </c>
       <c r="BB308" t="inlineStr"/>
       <c r="BC308" t="n">
-        <v>82516955</v>
+        <v>90450655.5</v>
       </c>
       <c r="BD308" t="n">
-        <v>4.707154989242554</v>
+        <v>6.057191014289856</v>
       </c>
       <c r="BE308" t="n">
-        <v>5528</v>
+        <v>6059.5</v>
       </c>
       <c r="BF308" t="inlineStr"/>
     </row>
@@ -48871,13 +48951,13 @@
       </c>
       <c r="AD316" t="inlineStr"/>
       <c r="AE316" t="n">
-        <v>1427438502</v>
+        <v>1474039750.666667</v>
       </c>
       <c r="AF316" t="n">
-        <v>87.57181692123413</v>
+        <v>97.63264393806458</v>
       </c>
       <c r="AG316" t="n">
-        <v>42434</v>
+        <v>43819.33333333334</v>
       </c>
       <c r="AH316" t="inlineStr"/>
       <c r="AI316" t="n">
@@ -48929,13 +49009,13 @@
       </c>
       <c r="BB316" t="inlineStr"/>
       <c r="BC316" t="n">
-        <v>922449631</v>
+        <v>806815568.5</v>
       </c>
       <c r="BD316" t="n">
-        <v>56.26960802078247</v>
+        <v>57.03146946430206</v>
       </c>
       <c r="BE316" t="n">
-        <v>27422</v>
+        <v>23984.5</v>
       </c>
       <c r="BF316" t="inlineStr"/>
     </row>
@@ -49852,9 +49932,15 @@
         <v>1147</v>
       </c>
       <c r="AD323" t="inlineStr"/>
-      <c r="AE323" t="inlineStr"/>
-      <c r="AF323" t="inlineStr"/>
-      <c r="AG323" t="inlineStr"/>
+      <c r="AE323" t="n">
+        <v>2632336340</v>
+      </c>
+      <c r="AF323" t="n">
+        <v>237.5443198680878</v>
+      </c>
+      <c r="AG323" t="n">
+        <v>65970</v>
+      </c>
       <c r="AH323" t="inlineStr"/>
       <c r="AI323" t="n">
         <v>40301014</v>
@@ -49904,9 +49990,15 @@
         <v>133</v>
       </c>
       <c r="BB323" t="inlineStr"/>
-      <c r="BC323" t="inlineStr"/>
-      <c r="BD323" t="inlineStr"/>
-      <c r="BE323" t="inlineStr"/>
+      <c r="BC323" t="n">
+        <v>1548438209</v>
+      </c>
+      <c r="BD323" t="n">
+        <v>144.6602330207825</v>
+      </c>
+      <c r="BE323" t="n">
+        <v>38806</v>
+      </c>
       <c r="BF323" t="inlineStr"/>
     </row>
     <row r="324">

--- a/results.xlsx
+++ b/results.xlsx
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8109084652443223</v>
+        <v>0.8109084652443221</v>
       </c>
       <c r="M4" t="n">
         <v>199770020</v>
@@ -948,10 +948,18 @@
       <c r="AD4" t="n">
         <v>0.9218284010094058</v>
       </c>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
+      <c r="AE4" t="n">
+        <v>3641942572</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>237.075386762619</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>189902</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.9839125946317963</v>
+      </c>
       <c r="AI4" t="n">
         <v>19977017</v>
       </c>
@@ -1012,10 +1020,18 @@
       <c r="BB4" t="n">
         <v>0.8400435879788942</v>
       </c>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
-      <c r="BE4" t="inlineStr"/>
-      <c r="BF4" t="inlineStr"/>
+      <c r="BC4" t="n">
+        <v>456821143</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>29.89830923080444</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>23820</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.8853234686854783</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1166,7 +1182,7 @@
         <v>133</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.05633333333333334</v>
+        <v>0.05633333333333333</v>
       </c>
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
@@ -1204,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5638297872340424</v>
+        <v>0.5638297872340423</v>
       </c>
       <c r="M6" t="n">
         <v>24010024</v>
@@ -1772,7 +1788,7 @@
         <v>100</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.7978677110530895</v>
+        <v>0.7978677110530897</v>
       </c>
       <c r="AW9" t="n">
         <v>100</v>
@@ -1828,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8098360655737706</v>
+        <v>0.8098360655737705</v>
       </c>
       <c r="M10" t="n">
         <v>54620021.33333334</v>
@@ -1984,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7932503276539973</v>
+        <v>0.7932503276539974</v>
       </c>
       <c r="M11" t="n">
         <v>54730012.66666666</v>
@@ -2040,10 +2056,18 @@
       <c r="AD11" t="n">
         <v>0.9054172127566623</v>
       </c>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
+      <c r="AE11" t="n">
+        <v>314954110</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>19.94002890586853</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>67384</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.9456094364351245</v>
+      </c>
       <c r="AI11" t="n">
         <v>5473014</v>
       </c>
@@ -2104,10 +2128,18 @@
       <c r="BB11" t="n">
         <v>0.7939056356487549</v>
       </c>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
-      <c r="BE11" t="inlineStr"/>
-      <c r="BF11" t="inlineStr"/>
+      <c r="BC11" t="n">
+        <v>10218257</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0.6253619194030762</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>2186</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.8207732634338138</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2152,7 +2184,7 @@
         <v>10000</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8053002953724975</v>
+        <v>0.8053002953724976</v>
       </c>
       <c r="Q12" t="n">
         <v>10000</v>
@@ -3088,13 +3120,13 @@
         <v>10000</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7678718466951119</v>
+        <v>0.767871846695112</v>
       </c>
       <c r="Q18" t="n">
         <v>10000</v>
       </c>
       <c r="R18" t="n">
-        <v>0.7481929860019463</v>
+        <v>0.7481929860019462</v>
       </c>
       <c r="S18" t="n">
         <v>27515336.25</v>
@@ -3106,7 +3138,7 @@
         <v>1376</v>
       </c>
       <c r="V18" t="n">
-        <v>0.830432667115802</v>
+        <v>0.8304326671158021</v>
       </c>
       <c r="W18" t="n">
         <v>17501380962</v>
@@ -3250,7 +3282,7 @@
         <v>10000</v>
       </c>
       <c r="R19" t="n">
-        <v>0.7490515812350119</v>
+        <v>0.7490515812350121</v>
       </c>
       <c r="S19" t="n">
         <v>27515416</v>
@@ -3486,7 +3518,7 @@
         <v>100</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.7492756991827249</v>
+        <v>0.7492756991827246</v>
       </c>
       <c r="AY20" t="n">
         <v>2661398</v>
@@ -3628,7 +3660,7 @@
         <v>100</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.7618690654672665</v>
+        <v>0.7618690654672663</v>
       </c>
       <c r="AW21" t="n">
         <v>100</v>
@@ -3794,7 +3826,7 @@
         <v>133</v>
       </c>
       <c r="BB22" t="n">
-        <v>0.7592787114845939</v>
+        <v>0.7592787114845937</v>
       </c>
       <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="inlineStr"/>
@@ -3880,10 +3912,18 @@
       <c r="AD23" t="n">
         <v>0.3171705078319864</v>
       </c>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr"/>
+      <c r="AE23" t="n">
+        <v>16833568182</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1071.791043043137</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>842015</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.8440586650703382</v>
+      </c>
       <c r="AI23" t="n">
         <v>21991016</v>
       </c>
@@ -3944,10 +3984,18 @@
       <c r="BB23" t="n">
         <v>0.04090591639229772</v>
       </c>
-      <c r="BC23" t="inlineStr"/>
-      <c r="BD23" t="inlineStr"/>
-      <c r="BE23" t="inlineStr"/>
-      <c r="BF23" t="inlineStr"/>
+      <c r="BC23" t="n">
+        <v>722753183</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>47.01586818695068</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>36152</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0.1825800658485483</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -4098,7 +4146,7 @@
         <v>133</v>
       </c>
       <c r="BB24" t="n">
-        <v>0.04194461289670507</v>
+        <v>0.04194461289670508</v>
       </c>
       <c r="BC24" t="inlineStr"/>
       <c r="BD24" t="inlineStr"/>
@@ -4182,7 +4230,7 @@
         <v>1147</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.3347038668624572</v>
+        <v>0.3347038668624571</v>
       </c>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
@@ -4432,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2809844711397597</v>
+        <v>0.2809844711397596</v>
       </c>
       <c r="M27" t="n">
         <v>219910018.6666667</v>
@@ -4444,7 +4492,7 @@
         <v>10000</v>
       </c>
       <c r="P27" t="n">
-        <v>0.09297782986619789</v>
+        <v>0.09297782986619786</v>
       </c>
       <c r="Q27" t="n">
         <v>10000</v>
@@ -4486,12 +4534,20 @@
         <v>1147</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.3397792753198554</v>
-      </c>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
+        <v>0.3397792753198555</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>16238526178</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1065.985548973083</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>812251</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.8505713448578963</v>
+      </c>
       <c r="AI27" t="n">
         <v>21991017</v>
       </c>
@@ -4552,10 +4608,18 @@
       <c r="BB27" t="n">
         <v>0.06289676726242797</v>
       </c>
-      <c r="BC27" t="inlineStr"/>
-      <c r="BD27" t="inlineStr"/>
-      <c r="BE27" t="inlineStr"/>
-      <c r="BF27" t="inlineStr"/>
+      <c r="BC27" t="n">
+        <v>761377727</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>50.48446917533875</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>38084</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>0.2124230881922063</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -5048,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>0.4942196531791907</v>
+        <v>0.4942196531791906</v>
       </c>
       <c r="M31" t="n">
         <v>60010012</v>
@@ -5504,7 +5568,7 @@
         <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>0.7918346118840202</v>
+        <v>0.7918346118840204</v>
       </c>
       <c r="Q34" t="n">
         <v>10000</v>
@@ -5546,7 +5610,7 @@
         <v>1147</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.8482208642135829</v>
+        <v>0.848220864213583</v>
       </c>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
@@ -5694,7 +5758,7 @@
         <v>1147</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.8545352063822409</v>
+        <v>0.8545352063822408</v>
       </c>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
@@ -5746,7 +5810,7 @@
         <v>100</v>
       </c>
       <c r="AX35" t="n">
-        <v>0.7658554457162677</v>
+        <v>0.765855445716268</v>
       </c>
       <c r="AY35" t="n">
         <v>1569296</v>
@@ -5944,7 +6008,7 @@
         <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>0.8554868624420401</v>
+        <v>0.85548686244204</v>
       </c>
       <c r="M37" t="n">
         <v>199770021.3333333</v>
@@ -6116,7 +6180,7 @@
         <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>0.4183333333333332</v>
+        <v>0.4183333333333333</v>
       </c>
       <c r="M38" t="n">
         <v>137670013</v>
@@ -6312,10 +6376,18 @@
       <c r="AD39" t="n">
         <v>0.316978516978517</v>
       </c>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="inlineStr"/>
+      <c r="AE39" t="n">
+        <v>7446918322.5</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>472.1999903917313</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>631790.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.818918918918919</v>
+      </c>
       <c r="AI39" t="n">
         <v>13786013</v>
       </c>
@@ -6376,10 +6448,18 @@
       <c r="BB39" t="n">
         <v>0.03645183645183645</v>
       </c>
-      <c r="BC39" t="inlineStr"/>
-      <c r="BD39" t="inlineStr"/>
-      <c r="BE39" t="inlineStr"/>
-      <c r="BF39" t="inlineStr"/>
+      <c r="BC39" t="n">
+        <v>123394444.5</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>7.737293362617493</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>10468.5</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>0.1835758835758836</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -6468,10 +6548,18 @@
       <c r="AD40" t="n">
         <v>0.33937928254736</v>
       </c>
-      <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
-      <c r="AH40" t="inlineStr"/>
+      <c r="AE40" t="n">
+        <v>7643551797</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>482.6503422260284</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>648803</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.8234582829504232</v>
+      </c>
       <c r="AI40" t="n">
         <v>13780015</v>
       </c>
@@ -6532,10 +6620,18 @@
       <c r="BB40" t="n">
         <v>0.08437458014241568</v>
       </c>
-      <c r="BC40" t="inlineStr"/>
-      <c r="BD40" t="inlineStr"/>
-      <c r="BE40" t="inlineStr"/>
-      <c r="BF40" t="inlineStr"/>
+      <c r="BC40" t="n">
+        <v>118012512</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>7.291252851486206</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>10017</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>0.1902458686013704</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -6666,7 +6762,7 @@
         <v>100</v>
       </c>
       <c r="AX41" t="n">
-        <v>0.7500095095095096</v>
+        <v>0.7500095095095095</v>
       </c>
       <c r="AY41" t="n">
         <v>1330344.666666667</v>
@@ -6678,7 +6774,7 @@
         <v>133</v>
       </c>
       <c r="BB41" t="n">
-        <v>0.7744244244244244</v>
+        <v>0.7744244244244246</v>
       </c>
       <c r="BC41" t="inlineStr"/>
       <c r="BD41" t="inlineStr"/>
@@ -6912,10 +7008,18 @@
       <c r="AD43" t="n">
         <v>0.8733092876465284</v>
       </c>
-      <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr"/>
-      <c r="AH43" t="inlineStr"/>
+      <c r="AE43" t="n">
+        <v>2035462366</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>132.8174917697906</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>203709</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.9573189059212504</v>
+      </c>
       <c r="AI43" t="n">
         <v>10991018</v>
       </c>
@@ -6962,7 +7066,7 @@
         <v>100</v>
       </c>
       <c r="AX43" t="n">
-        <v>0.7509913836288948</v>
+        <v>0.7509913836288949</v>
       </c>
       <c r="AY43" t="n">
         <v>1330411.333333333</v>
@@ -6976,10 +7080,18 @@
       <c r="BB43" t="n">
         <v>0.7684099789600239</v>
       </c>
-      <c r="BC43" t="inlineStr"/>
-      <c r="BD43" t="inlineStr"/>
-      <c r="BE43" t="inlineStr"/>
-      <c r="BF43" t="inlineStr"/>
+      <c r="BC43" t="n">
+        <v>101300095</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>6.496380805969238</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>10138</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>0.8043282236248873</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -7190,7 +7302,7 @@
         <v>1376</v>
       </c>
       <c r="V45" t="n">
-        <v>0.8697611536728257</v>
+        <v>0.8697611536728256</v>
       </c>
       <c r="W45" t="n">
         <v>2142656684</v>
@@ -7214,12 +7326,20 @@
         <v>1147</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.8699614440939363</v>
-      </c>
-      <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="inlineStr"/>
-      <c r="AH45" t="inlineStr"/>
+        <v>0.8699614440939362</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>2263619858</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>144.7523322105408</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>226543</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.9687546943067448</v>
+      </c>
       <c r="AI45" t="n">
         <v>10991012</v>
       </c>
@@ -7280,10 +7400,18 @@
       <c r="BB45" t="n">
         <v>0.7754744379350057</v>
       </c>
-      <c r="BC45" t="inlineStr"/>
-      <c r="BD45" t="inlineStr"/>
-      <c r="BE45" t="inlineStr"/>
-      <c r="BF45" t="inlineStr"/>
+      <c r="BC45" t="n">
+        <v>85033119</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>5.344539165496826</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>8510</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>0.7923989785188523</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -7676,10 +7804,18 @@
       <c r="AD48" t="n">
         <v>0.9183503854641332</v>
       </c>
-      <c r="AE48" t="inlineStr"/>
-      <c r="AF48" t="inlineStr"/>
-      <c r="AG48" t="inlineStr"/>
-      <c r="AH48" t="inlineStr"/>
+      <c r="AE48" t="n">
+        <v>3469225566</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>221.6607842445374</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>180896</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0.9793654887799845</v>
+      </c>
       <c r="AI48" t="n">
         <v>19977014</v>
       </c>
@@ -7740,10 +7876,18 @@
       <c r="BB48" t="n">
         <v>0.8427478290774655</v>
       </c>
-      <c r="BC48" t="inlineStr"/>
-      <c r="BD48" t="inlineStr"/>
-      <c r="BE48" t="inlineStr"/>
-      <c r="BF48" t="inlineStr"/>
+      <c r="BC48" t="n">
+        <v>406517249</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>25.20817422866821</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>21197</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>0.882641217436162</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -7972,10 +8116,18 @@
       <c r="AD50" t="n">
         <v>0.8912855162855163</v>
       </c>
-      <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="inlineStr"/>
-      <c r="AG50" t="inlineStr"/>
-      <c r="AH50" t="inlineStr"/>
+      <c r="AE50" t="n">
+        <v>744116815.5</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>46.45937442779541</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>125886.5</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0.9554313929313929</v>
+      </c>
       <c r="AI50" t="n">
         <v>6910014</v>
       </c>
@@ -8036,10 +8188,18 @@
       <c r="BB50" t="n">
         <v>0.8014553014553014</v>
       </c>
-      <c r="BC50" t="inlineStr"/>
-      <c r="BD50" t="inlineStr"/>
-      <c r="BE50" t="inlineStr"/>
-      <c r="BF50" t="inlineStr"/>
+      <c r="BC50" t="n">
+        <v>17793229</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1.081186890602112</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>3010</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>0.818477130977131</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -8269,16 +8429,16 @@
         <v>0.8993073593073593</v>
       </c>
       <c r="AE52" t="n">
-        <v>686281334</v>
+        <v>674839795</v>
       </c>
       <c r="AF52" t="n">
-        <v>59.85848927497864</v>
+        <v>50.0609495639801</v>
       </c>
       <c r="AG52" t="n">
-        <v>116004</v>
+        <v>114070</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.9542857142857143</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="AI52" t="n">
         <v>6915018</v>
@@ -8341,16 +8501,16 @@
         <v>0.7925541125541126</v>
       </c>
       <c r="BC52" t="n">
-        <v>17323167</v>
+        <v>18003507</v>
       </c>
       <c r="BD52" t="n">
-        <v>1.465623140335083</v>
+        <v>1.354498147964478</v>
       </c>
       <c r="BE52" t="n">
-        <v>2928</v>
+        <v>3043</v>
       </c>
       <c r="BF52" t="n">
-        <v>0.8306493506493506</v>
+        <v>0.8297402597402597</v>
       </c>
     </row>
     <row r="53">
@@ -8384,7 +8544,7 @@
         <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>0.7754413291796468</v>
+        <v>0.7754413291796467</v>
       </c>
       <c r="M53" t="n">
         <v>69170019</v>
@@ -8482,7 +8642,7 @@
         <v>100</v>
       </c>
       <c r="AX53" t="n">
-        <v>0.7688975424022152</v>
+        <v>0.7688975424022154</v>
       </c>
       <c r="AY53" t="n">
         <v>788506.6666666666</v>
@@ -8532,7 +8692,7 @@
         <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>0.8193999417419167</v>
+        <v>0.8193999417419168</v>
       </c>
       <c r="M54" t="n">
         <v>174990017</v>
@@ -8680,7 +8840,7 @@
         <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>0.4505850136918098</v>
+        <v>0.4505850136918099</v>
       </c>
       <c r="M55" t="n">
         <v>174990017</v>
@@ -8828,7 +8988,7 @@
         <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>0.4682312535775615</v>
+        <v>0.4682312535775616</v>
       </c>
       <c r="M56" t="n">
         <v>150010022</v>
@@ -9321,16 +9481,16 @@
         <v>0.5555555555555555</v>
       </c>
       <c r="AE59" t="n">
-        <v>3502556912</v>
+        <v>3442616072</v>
       </c>
       <c r="AF59" t="n">
-        <v>294.3551330566406</v>
+        <v>250.6279655694962</v>
       </c>
       <c r="AG59" t="n">
-        <v>182634</v>
+        <v>179508.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>0.8962350780532599</v>
+        <v>0.8856749311294766</v>
       </c>
       <c r="AI59" t="n">
         <v>19977017</v>
@@ -9393,16 +9553,16 @@
         <v>0.09044995408631773</v>
       </c>
       <c r="BC59" t="n">
-        <v>408204913</v>
+        <v>420843215</v>
       </c>
       <c r="BD59" t="n">
-        <v>34.03529810905457</v>
+        <v>30.2414265871048</v>
       </c>
       <c r="BE59" t="n">
-        <v>21285</v>
+        <v>21944</v>
       </c>
       <c r="BF59" t="n">
-        <v>0.3292011019283747</v>
+        <v>0.3661616161616162</v>
       </c>
     </row>
     <row r="60">
@@ -9436,7 +9596,7 @@
         <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>0.8133634056949535</v>
+        <v>0.8133634056949536</v>
       </c>
       <c r="M60" t="n">
         <v>241490016</v>
@@ -9682,7 +9842,7 @@
         <v>100</v>
       </c>
       <c r="AX61" t="n">
-        <v>0.03094893029675638</v>
+        <v>0.03094893029675637</v>
       </c>
       <c r="AY61" t="n">
         <v>2288341.333333333</v>
@@ -9926,7 +10086,7 @@
         <v>1147</v>
       </c>
       <c r="AD63" t="n">
-        <v>0.8036605657237935</v>
+        <v>0.8036605657237937</v>
       </c>
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr"/>
@@ -10222,7 +10382,7 @@
         <v>1147</v>
       </c>
       <c r="AD65" t="n">
-        <v>0.08042670502217428</v>
+        <v>0.08042670502217429</v>
       </c>
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr"/>
@@ -10324,7 +10484,7 @@
         <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>0.5012570710245129</v>
+        <v>0.501257071024513</v>
       </c>
       <c r="M66" t="n">
         <v>270010013</v>
@@ -10518,7 +10678,7 @@
         <v>1147</v>
       </c>
       <c r="AD67" t="n">
-        <v>0.06743405275779378</v>
+        <v>0.06743405275779377</v>
       </c>
       <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="inlineStr"/>
@@ -10916,7 +11076,7 @@
         <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>0.5169854410505281</v>
+        <v>0.516985441050528</v>
       </c>
       <c r="M70" t="n">
         <v>300010017</v>
@@ -11008,7 +11168,7 @@
         <v>100</v>
       </c>
       <c r="AV70" t="n">
-        <v>0.02207631553906175</v>
+        <v>0.02207631553906176</v>
       </c>
       <c r="AW70" t="n">
         <v>100</v>
@@ -11026,7 +11186,7 @@
         <v>133</v>
       </c>
       <c r="BB70" t="n">
-        <v>0.00570939194975735</v>
+        <v>0.005709391949757349</v>
       </c>
       <c r="BC70" t="inlineStr"/>
       <c r="BD70" t="inlineStr"/>
@@ -11121,16 +11281,16 @@
         <v>0.5178719866999169</v>
       </c>
       <c r="AE71" t="n">
-        <v>3532934890</v>
+        <v>3672042552</v>
       </c>
       <c r="AF71" t="n">
-        <v>211.8440709114075</v>
+        <v>223.7284458875657</v>
       </c>
       <c r="AG71" t="n">
-        <v>184218</v>
+        <v>191471.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>0.9097256857855361</v>
+        <v>0.8955112219451371</v>
       </c>
       <c r="AI71" t="n">
         <v>19977012</v>
@@ -11193,16 +11353,16 @@
         <v>0.1029093931837074</v>
       </c>
       <c r="BC71" t="n">
-        <v>447807483</v>
+        <v>421476089</v>
       </c>
       <c r="BD71" t="n">
-        <v>26.7477822303772</v>
+        <v>25.51491153240204</v>
       </c>
       <c r="BE71" t="n">
-        <v>23350</v>
+        <v>21977</v>
       </c>
       <c r="BF71" t="n">
-        <v>0.3286783042394015</v>
+        <v>0.3266832917705736</v>
       </c>
     </row>
     <row r="72">
@@ -11266,7 +11426,7 @@
         <v>1376</v>
       </c>
       <c r="V72" t="n">
-        <v>0.5677945472249269</v>
+        <v>0.5677945472249271</v>
       </c>
       <c r="W72" t="n">
         <v>3358405456</v>
@@ -11336,7 +11496,7 @@
         <v>100</v>
       </c>
       <c r="AV72" t="n">
-        <v>0.08000649139889647</v>
+        <v>0.08000649139889646</v>
       </c>
       <c r="AW72" t="n">
         <v>100</v>
@@ -11354,7 +11514,7 @@
         <v>133</v>
       </c>
       <c r="BB72" t="n">
-        <v>0.0584225900681597</v>
+        <v>0.05842259006815969</v>
       </c>
       <c r="BC72" t="inlineStr"/>
       <c r="BD72" t="inlineStr"/>
@@ -11619,13 +11779,13 @@
         <v>1</v>
       </c>
       <c r="AE74" t="n">
-        <v>19</v>
+        <v>17.4</v>
       </c>
       <c r="AF74" t="n">
-        <v>7.987022399902344e-06</v>
+        <v>7.867813110351562e-06</v>
       </c>
       <c r="AG74" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="AH74" t="n">
         <v>1</v>
@@ -11694,7 +11854,7 @@
         <v>19</v>
       </c>
       <c r="BD74" t="n">
-        <v>1.645088195800782e-05</v>
+        <v>1.406669616699219e-05</v>
       </c>
       <c r="BE74" t="n">
         <v>5</v>
@@ -11806,7 +11966,7 @@
         <v>3</v>
       </c>
       <c r="AH75" t="n">
-        <v>0.5789473684210525</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="AI75" t="n">
         <v>242</v>
@@ -12331,16 +12491,16 @@
         <v>1</v>
       </c>
       <c r="AE78" t="n">
-        <v>19</v>
+        <v>17.75</v>
       </c>
       <c r="AF78" t="n">
         <v>7.867813110351562e-06</v>
       </c>
       <c r="AG78" t="n">
-        <v>3.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="AH78" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.825</v>
       </c>
       <c r="AI78" t="n">
         <v>841.5</v>
@@ -12406,7 +12566,7 @@
         <v>22</v>
       </c>
       <c r="BD78" t="n">
-        <v>1.430511474609375e-05</v>
+        <v>1.668930053710938e-05</v>
       </c>
       <c r="BE78" t="n">
         <v>4</v>
@@ -12687,16 +12847,16 @@
         <v>1</v>
       </c>
       <c r="AE80" t="n">
-        <v>39</v>
+        <v>39.75</v>
       </c>
       <c r="AF80" t="n">
-        <v>1.001358032226562e-05</v>
+        <v>8.463859558105465e-06</v>
       </c>
       <c r="AG80" t="n">
-        <v>3.666666666666667</v>
+        <v>3.75</v>
       </c>
       <c r="AH80" t="n">
-        <v>0.9931972789115647</v>
+        <v>0.9948979591836735</v>
       </c>
       <c r="AI80" t="n">
         <v>1190.5</v>
@@ -12759,16 +12919,16 @@
         <v>1</v>
       </c>
       <c r="BC80" t="n">
-        <v>42</v>
+        <v>37.5</v>
       </c>
       <c r="BD80" t="n">
-        <v>1.597404479980469e-05</v>
+        <v>1.645088195800782e-05</v>
       </c>
       <c r="BE80" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="BF80" t="n">
-        <v>1</v>
+        <v>0.9897959183673469</v>
       </c>
     </row>
     <row r="81">
@@ -12865,13 +13025,13 @@
         <v>1</v>
       </c>
       <c r="AE81" t="n">
-        <v>17.66666666666667</v>
+        <v>16.5</v>
       </c>
       <c r="AF81" t="n">
-        <v>6.914138793945312e-06</v>
+        <v>6.556510925292969e-06</v>
       </c>
       <c r="AG81" t="n">
-        <v>3.666666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="AH81" t="n">
         <v>1</v>
@@ -12940,7 +13100,7 @@
         <v>27</v>
       </c>
       <c r="BD81" t="n">
-        <v>1.478195190429688e-05</v>
+        <v>1.585483551025391e-05</v>
       </c>
       <c r="BE81" t="n">
         <v>7</v>
@@ -13278,7 +13438,7 @@
         <v>100</v>
       </c>
       <c r="AX83" t="n">
-        <v>0.2607692307692308</v>
+        <v>0.2607692307692307</v>
       </c>
       <c r="AY83" t="n">
         <v>1607.666666666667</v>
@@ -13342,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>0.9885057471264368</v>
+        <v>0.9885057471264367</v>
       </c>
       <c r="M84" t="n">
         <v>2497.714285714286</v>
@@ -13456,7 +13616,7 @@
         <v>100</v>
       </c>
       <c r="AX84" t="n">
-        <v>0.3325670498084292</v>
+        <v>0.3325670498084291</v>
       </c>
       <c r="AY84" t="n">
         <v>2159.333333333333</v>
@@ -13933,16 +14093,16 @@
         <v>1</v>
       </c>
       <c r="AE87" t="n">
-        <v>71.66666666666667</v>
+        <v>64.75</v>
       </c>
       <c r="AF87" t="n">
-        <v>1.311302185058594e-05</v>
+        <v>1.204013824462891e-05</v>
       </c>
       <c r="AG87" t="n">
-        <v>5.333333333333333</v>
+        <v>4.75</v>
       </c>
       <c r="AH87" t="n">
-        <v>0.7662337662337663</v>
+        <v>0.6948051948051948</v>
       </c>
       <c r="AI87" t="n">
         <v>6281</v>
@@ -14008,13 +14168,13 @@
         <v>32</v>
       </c>
       <c r="BD87" t="n">
-        <v>1.502037048339844e-05</v>
+        <v>1.513957977294922e-05</v>
       </c>
       <c r="BE87" t="n">
         <v>2</v>
       </c>
       <c r="BF87" t="n">
-        <v>0.6233766233766234</v>
+        <v>0.7207792207792207</v>
       </c>
     </row>
     <row r="88">
@@ -14111,16 +14271,16 @@
         <v>1</v>
       </c>
       <c r="AE88" t="n">
-        <v>112</v>
+        <v>103.5</v>
       </c>
       <c r="AF88" t="n">
-        <v>1.406669616699219e-05</v>
+        <v>1.358985900878906e-05</v>
       </c>
       <c r="AG88" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH88" t="n">
-        <v>0.8760330578512397</v>
+        <v>0.7913223140495869</v>
       </c>
       <c r="AI88" t="n">
         <v>7561</v>
@@ -14183,16 +14343,16 @@
         <v>1</v>
       </c>
       <c r="BC88" t="n">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="BD88" t="n">
-        <v>2.026557922363281e-05</v>
+        <v>1.9073486328125e-05</v>
       </c>
       <c r="BE88" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BF88" t="n">
-        <v>0.8760330578512396</v>
+        <v>0.7851239669421488</v>
       </c>
     </row>
     <row r="89">
@@ -14292,13 +14452,13 @@
         <v>24</v>
       </c>
       <c r="AF89" t="n">
-        <v>8.821487426757812e-06</v>
+        <v>8.463859558105469e-06</v>
       </c>
       <c r="AG89" t="n">
         <v>3</v>
       </c>
       <c r="AH89" t="n">
-        <v>1</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="AI89" t="n">
         <v>9014</v>
@@ -14361,16 +14521,16 @@
         <v>1</v>
       </c>
       <c r="BC89" t="n">
-        <v>19</v>
+        <v>21.5</v>
       </c>
       <c r="BD89" t="n">
-        <v>1.478195190429688e-05</v>
+        <v>1.537799835205078e-05</v>
       </c>
       <c r="BE89" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="BF89" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.8421052631578947</v>
       </c>
     </row>
     <row r="90">
@@ -14702,7 +14862,7 @@
         <v>100</v>
       </c>
       <c r="AX91" t="n">
-        <v>0.5183687943262412</v>
+        <v>0.5183687943262413</v>
       </c>
       <c r="AY91" t="n">
         <v>2548</v>
@@ -14823,16 +14983,16 @@
         <v>1</v>
       </c>
       <c r="AE92" t="n">
-        <v>247.3333333333333</v>
+        <v>252</v>
       </c>
       <c r="AF92" t="n">
-        <v>2.312660217285156e-05</v>
+        <v>2.503395080566406e-05</v>
       </c>
       <c r="AG92" t="n">
-        <v>10.33333333333333</v>
+        <v>10.5</v>
       </c>
       <c r="AH92" t="n">
-        <v>0.9517819706498951</v>
+        <v>0.9339622641509434</v>
       </c>
       <c r="AI92" t="n">
         <v>13476</v>
@@ -14895,16 +15055,16 @@
         <v>1</v>
       </c>
       <c r="BC92" t="n">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="BD92" t="n">
-        <v>2.813339233398438e-05</v>
+        <v>2.300739288330078e-05</v>
       </c>
       <c r="BE92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF92" t="n">
-        <v>0.9056603773584906</v>
+        <v>0.8584905660377359</v>
       </c>
     </row>
     <row r="93">
@@ -14962,7 +15122,7 @@
         <v>3865.833333333333</v>
       </c>
       <c r="R93" t="n">
-        <v>0.06791880195028294</v>
+        <v>0.06791880195028292</v>
       </c>
       <c r="S93" t="n">
         <v>11933.33333333333</v>
@@ -15058,7 +15218,7 @@
         <v>100</v>
       </c>
       <c r="AX93" t="n">
-        <v>0.457070707070707</v>
+        <v>0.4570707070707071</v>
       </c>
       <c r="AY93" t="n">
         <v>1157</v>
@@ -15122,7 +15282,7 @@
         <v>1</v>
       </c>
       <c r="L94" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9193548387096773</v>
       </c>
       <c r="M94" t="n">
         <v>37033.83333333334</v>
@@ -15164,7 +15324,7 @@
         <v>23.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>0.9596774193548386</v>
+        <v>0.9596774193548389</v>
       </c>
       <c r="AA94" t="n">
         <v>16496.4</v>
@@ -15188,7 +15348,7 @@
         <v>2.666666666666667</v>
       </c>
       <c r="AH94" t="n">
-        <v>0.8924731182795699</v>
+        <v>0.89247311827957</v>
       </c>
       <c r="AI94" t="n">
         <v>13343</v>
@@ -15236,7 +15396,7 @@
         <v>100</v>
       </c>
       <c r="AX94" t="n">
-        <v>0.4683870967741935</v>
+        <v>0.4683870967741934</v>
       </c>
       <c r="AY94" t="n">
         <v>1874</v>
@@ -15300,7 +15460,7 @@
         <v>1</v>
       </c>
       <c r="L95" t="n">
-        <v>0.8706467661691543</v>
+        <v>0.8706467661691544</v>
       </c>
       <c r="M95" t="n">
         <v>40348.5</v>
@@ -15414,7 +15574,7 @@
         <v>100</v>
       </c>
       <c r="AX95" t="n">
-        <v>0.5819568822553898</v>
+        <v>0.5819568822553897</v>
       </c>
       <c r="AY95" t="n">
         <v>3098</v>
@@ -15478,7 +15638,7 @@
         <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>0.9700000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="M96" t="n">
         <v>40992.66666666666</v>
@@ -15834,7 +15994,7 @@
         <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>0.8761061946902654</v>
+        <v>0.8761061946902655</v>
       </c>
       <c r="M98" t="n">
         <v>85270.66666666667</v>
@@ -16030,7 +16190,7 @@
         <v>7078.666666666667</v>
       </c>
       <c r="R99" t="n">
-        <v>0.08797654819158209</v>
+        <v>0.08797654819158207</v>
       </c>
       <c r="S99" t="n">
         <v>37454.66666666666</v>
@@ -16126,7 +16286,7 @@
         <v>100</v>
       </c>
       <c r="AX99" t="n">
-        <v>0.5841925925925925</v>
+        <v>0.5841925925925926</v>
       </c>
       <c r="AY99" t="n">
         <v>3637.333333333333</v>
@@ -16232,7 +16392,7 @@
         <v>29.83333333333333</v>
       </c>
       <c r="Z100" t="n">
-        <v>0.9775641025641026</v>
+        <v>0.9775641025641025</v>
       </c>
       <c r="AA100" t="n">
         <v>44245.4</v>
@@ -16247,16 +16407,16 @@
         <v>1</v>
       </c>
       <c r="AE100" t="n">
-        <v>594.5</v>
+        <v>605</v>
       </c>
       <c r="AF100" t="n">
-        <v>4.661083221435547e-05</v>
+        <v>4.792213439941406e-05</v>
       </c>
       <c r="AG100" t="n">
-        <v>16.5</v>
+        <v>16.8</v>
       </c>
       <c r="AH100" t="n">
-        <v>0.9288461538461539</v>
+        <v>0.9176923076923076</v>
       </c>
       <c r="AI100" t="n">
         <v>31653</v>
@@ -16319,16 +16479,16 @@
         <v>0.9910256410256411</v>
       </c>
       <c r="BC100" t="n">
-        <v>81</v>
+        <v>92.66666666666667</v>
       </c>
       <c r="BD100" t="n">
-        <v>2.300739288330078e-05</v>
+        <v>2.288818359375e-05</v>
       </c>
       <c r="BE100" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="BF100" t="n">
-        <v>0.6826923076923077</v>
+        <v>0.6538461538461539</v>
       </c>
     </row>
     <row r="101">
@@ -16660,7 +16820,7 @@
         <v>100</v>
       </c>
       <c r="AX102" t="n">
-        <v>0.5087719298245614</v>
+        <v>0.5087719298245613</v>
       </c>
       <c r="AY102" t="n">
         <v>2421.333333333333</v>
@@ -16724,7 +16884,7 @@
         <v>1</v>
       </c>
       <c r="L103" t="n">
-        <v>0.8700787401574802</v>
+        <v>0.8700787401574803</v>
       </c>
       <c r="M103" t="n">
         <v>166915.6666666667</v>
@@ -16781,16 +16941,16 @@
         <v>1</v>
       </c>
       <c r="AE103" t="n">
-        <v>383.3333333333333</v>
+        <v>342.25</v>
       </c>
       <c r="AF103" t="n">
-        <v>4.029273986816406e-05</v>
+        <v>3.099441528320312e-05</v>
       </c>
       <c r="AG103" t="n">
-        <v>12.66666666666667</v>
+        <v>11.25</v>
       </c>
       <c r="AH103" t="n">
-        <v>0.9015748031496061</v>
+        <v>0.8494094488188977</v>
       </c>
       <c r="AI103" t="n">
         <v>32980</v>
@@ -16838,7 +16998,7 @@
         <v>100</v>
       </c>
       <c r="AX103" t="n">
-        <v>0.6167060367454068</v>
+        <v>0.6167060367454069</v>
       </c>
       <c r="AY103" t="n">
         <v>4297.333333333333</v>
@@ -16853,16 +17013,16 @@
         <v>0.9724409448818898</v>
       </c>
       <c r="BC103" t="n">
-        <v>302</v>
+        <v>186</v>
       </c>
       <c r="BD103" t="n">
-        <v>3.409385681152344e-05</v>
+        <v>3.910064697265625e-05</v>
       </c>
       <c r="BE103" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BF103" t="n">
-        <v>0.9251968503937008</v>
+        <v>0.8051181102362205</v>
       </c>
     </row>
     <row r="104">
@@ -16902,7 +17062,7 @@
         <v>1</v>
       </c>
       <c r="L104" t="n">
-        <v>0.9147540983606556</v>
+        <v>0.9147540983606557</v>
       </c>
       <c r="M104" t="n">
         <v>195259</v>
@@ -16959,13 +17119,13 @@
         <v>1</v>
       </c>
       <c r="AE104" t="n">
-        <v>1093</v>
+        <v>1015.8</v>
       </c>
       <c r="AF104" t="n">
         <v>7.605552673339844e-05</v>
       </c>
       <c r="AG104" t="n">
-        <v>25</v>
+        <v>23.2</v>
       </c>
       <c r="AH104" t="n">
         <v>1</v>
@@ -17016,7 +17176,7 @@
         <v>100</v>
       </c>
       <c r="AX104" t="n">
-        <v>0.6659781420765027</v>
+        <v>0.6659781420765029</v>
       </c>
       <c r="AY104" t="n">
         <v>6146.333333333333</v>
@@ -17031,16 +17191,16 @@
         <v>0.9202185792349726</v>
       </c>
       <c r="BC104" t="n">
-        <v>227</v>
+        <v>169.6666666666667</v>
       </c>
       <c r="BD104" t="n">
-        <v>2.884864807128906e-05</v>
+        <v>2.503395080566406e-05</v>
       </c>
       <c r="BE104" t="n">
-        <v>5</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="BF104" t="n">
-        <v>0.8885245901639345</v>
+        <v>0.7573770491803279</v>
       </c>
     </row>
     <row r="105">
@@ -17098,7 +17258,7 @@
         <v>10000</v>
       </c>
       <c r="R105" t="n">
-        <v>0.1876547309833024</v>
+        <v>0.1876547309833025</v>
       </c>
       <c r="S105" t="n">
         <v>17908.85714285714</v>
@@ -17324,7 +17484,7 @@
         <v>9.666666666666666</v>
       </c>
       <c r="AH106" t="n">
-        <v>0.7418546365914788</v>
+        <v>0.7418546365914787</v>
       </c>
       <c r="AI106" t="n">
         <v>27045</v>
@@ -17436,7 +17596,7 @@
         <v>1</v>
       </c>
       <c r="L107" t="n">
-        <v>0.9256756756756758</v>
+        <v>0.9256756756756759</v>
       </c>
       <c r="M107" t="n">
         <v>247129.6666666667</v>
@@ -17466,7 +17626,7 @@
         <v>1376</v>
       </c>
       <c r="V107" t="n">
-        <v>0.9977477477477477</v>
+        <v>0.9977477477477478</v>
       </c>
       <c r="W107" t="n">
         <v>1302</v>
@@ -17478,7 +17638,7 @@
         <v>37.83333333333334</v>
       </c>
       <c r="Z107" t="n">
-        <v>0.9600225225225225</v>
+        <v>0.9600225225225226</v>
       </c>
       <c r="AA107" t="n">
         <v>44291.8</v>
@@ -17493,16 +17653,16 @@
         <v>0.9972972972972972</v>
       </c>
       <c r="AE107" t="n">
-        <v>705</v>
+        <v>629.75</v>
       </c>
       <c r="AF107" t="n">
-        <v>5.793571472167969e-05</v>
+        <v>5.650520324707031e-05</v>
       </c>
       <c r="AG107" t="n">
-        <v>19.66666666666667</v>
+        <v>17.5</v>
       </c>
       <c r="AH107" t="n">
-        <v>0.8502252252252253</v>
+        <v>0.8209459459459459</v>
       </c>
       <c r="AI107" t="n">
         <v>42240</v>
@@ -17565,16 +17725,16 @@
         <v>0.9943693693693693</v>
       </c>
       <c r="BC107" t="n">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="BD107" t="n">
-        <v>2.408027648925781e-05</v>
+        <v>2.217292785644531e-05</v>
       </c>
       <c r="BE107" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF107" t="n">
-        <v>0.7736486486486487</v>
+        <v>0.7162162162162162</v>
       </c>
     </row>
     <row r="108">
@@ -17656,7 +17816,7 @@
         <v>50</v>
       </c>
       <c r="Z108" t="n">
-        <v>0.9161821705426357</v>
+        <v>0.9161821705426356</v>
       </c>
       <c r="AA108" t="n">
         <v>62610</v>
@@ -17680,7 +17840,7 @@
         <v>31.33333333333333</v>
       </c>
       <c r="AH108" t="n">
-        <v>0.9350775193798451</v>
+        <v>0.935077519379845</v>
       </c>
       <c r="AI108" t="n">
         <v>56643</v>
@@ -17858,7 +18018,7 @@
         <v>2.666666666666667</v>
       </c>
       <c r="AH109" t="n">
-        <v>0.6460481099656358</v>
+        <v>0.6460481099656357</v>
       </c>
       <c r="AI109" t="n">
         <v>22461</v>
@@ -17970,7 +18130,7 @@
         <v>1</v>
       </c>
       <c r="L110" t="n">
-        <v>0.8324022346368715</v>
+        <v>0.8324022346368714</v>
       </c>
       <c r="M110" t="n">
         <v>245515.3333333333</v>
@@ -17988,7 +18148,7 @@
         <v>10000</v>
       </c>
       <c r="R110" t="n">
-        <v>0.3051088454376165</v>
+        <v>0.3051088454376164</v>
       </c>
       <c r="S110" t="n">
         <v>33237.16666666666</v>
@@ -18027,16 +18187,16 @@
         <v>0.994413407821229</v>
       </c>
       <c r="AE110" t="n">
-        <v>233</v>
+        <v>210.25</v>
       </c>
       <c r="AF110" t="n">
-        <v>2.813339233398438e-05</v>
+        <v>2.562999725341797e-05</v>
       </c>
       <c r="AG110" t="n">
-        <v>10.33333333333333</v>
+        <v>9.25</v>
       </c>
       <c r="AH110" t="n">
-        <v>0.8212290502793295</v>
+        <v>0.75</v>
       </c>
       <c r="AI110" t="n">
         <v>31954</v>
@@ -18108,7 +18268,7 @@
         <v>2</v>
       </c>
       <c r="BF110" t="n">
-        <v>0.7541899441340782</v>
+        <v>0.7039106145251397</v>
       </c>
     </row>
     <row r="111">
@@ -18148,7 +18308,7 @@
         <v>1</v>
       </c>
       <c r="L111" t="n">
-        <v>0.8706624605678234</v>
+        <v>0.8706624605678235</v>
       </c>
       <c r="M111" t="n">
         <v>360977.6666666667</v>
@@ -18166,7 +18326,7 @@
         <v>10000</v>
       </c>
       <c r="R111" t="n">
-        <v>0.3786256572029443</v>
+        <v>0.3786256572029442</v>
       </c>
       <c r="S111" t="n">
         <v>60804.83333333334</v>
@@ -18190,7 +18350,7 @@
         <v>50.66666666666666</v>
       </c>
       <c r="Z111" t="n">
-        <v>0.9626708727655099</v>
+        <v>0.9626708727655101</v>
       </c>
       <c r="AA111" t="n">
         <v>51187</v>
@@ -18326,7 +18486,7 @@
         <v>1</v>
       </c>
       <c r="L112" t="n">
-        <v>0.8485639686684073</v>
+        <v>0.8485639686684074</v>
       </c>
       <c r="M112" t="n">
         <v>471645.3333333333</v>
@@ -18368,7 +18528,7 @@
         <v>45</v>
       </c>
       <c r="Z112" t="n">
-        <v>0.969538729329852</v>
+        <v>0.9695387293298521</v>
       </c>
       <c r="AA112" t="n">
         <v>72968.60000000001</v>
@@ -18383,16 +18543,16 @@
         <v>0.9921671018276761</v>
       </c>
       <c r="AE112" t="n">
-        <v>2142.666666666667</v>
+        <v>1973</v>
       </c>
       <c r="AF112" t="n">
-        <v>0.0001473426818847656</v>
+        <v>0.0001226663589477539</v>
       </c>
       <c r="AG112" t="n">
-        <v>35.33333333333334</v>
+        <v>32.5</v>
       </c>
       <c r="AH112" t="n">
-        <v>0.9216710182767623</v>
+        <v>0.9262402088772845</v>
       </c>
       <c r="AI112" t="n">
         <v>69100.5</v>
@@ -18458,13 +18618,13 @@
         <v>194</v>
       </c>
       <c r="BD112" t="n">
-        <v>2.598762512207031e-05</v>
+        <v>3.135204315185546e-05</v>
       </c>
       <c r="BE112" t="n">
         <v>3</v>
       </c>
       <c r="BF112" t="n">
-        <v>0.7885117493472585</v>
+        <v>0.7571801566579635</v>
       </c>
     </row>
     <row r="113">
@@ -18534,7 +18694,7 @@
         <v>1376</v>
       </c>
       <c r="V113" t="n">
-        <v>0.9950000000000001</v>
+        <v>0.995</v>
       </c>
       <c r="W113" t="n">
         <v>546.5714285714286</v>
@@ -18546,7 +18706,7 @@
         <v>40.16666666666666</v>
       </c>
       <c r="Z113" t="n">
-        <v>0.9733333333333333</v>
+        <v>0.9733333333333335</v>
       </c>
       <c r="AA113" t="n">
         <v>18862.2</v>
@@ -18618,7 +18778,7 @@
         <v>100</v>
       </c>
       <c r="AX113" t="n">
-        <v>0.5078666666666666</v>
+        <v>0.5078666666666667</v>
       </c>
       <c r="AY113" t="n">
         <v>2162</v>
@@ -18739,16 +18899,16 @@
         <v>0.969377990430622</v>
       </c>
       <c r="AE114" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="AF114" t="n">
-        <v>2.312660217285156e-05</v>
+        <v>2.300739288330078e-05</v>
       </c>
       <c r="AG114" t="n">
-        <v>8.666666666666666</v>
+        <v>8.25</v>
       </c>
       <c r="AH114" t="n">
-        <v>0.7208931419457736</v>
+        <v>0.722488038277512</v>
       </c>
       <c r="AI114" t="n">
         <v>36322</v>
@@ -18814,13 +18974,13 @@
         <v>63</v>
       </c>
       <c r="BD114" t="n">
-        <v>2.002716064453125e-05</v>
+        <v>2.050399780273438e-05</v>
       </c>
       <c r="BE114" t="n">
         <v>2</v>
       </c>
       <c r="BF114" t="n">
-        <v>0.5980861244019139</v>
+        <v>0.5669856459330144</v>
       </c>
     </row>
     <row r="115">
@@ -19056,7 +19216,7 @@
         <v>10000</v>
       </c>
       <c r="R116" t="n">
-        <v>0.5406928167020523</v>
+        <v>0.5406928167020524</v>
       </c>
       <c r="S116" t="n">
         <v>100764.3333333333</v>
@@ -19152,7 +19312,7 @@
         <v>100</v>
       </c>
       <c r="AX116" t="n">
-        <v>0.7185138004246284</v>
+        <v>0.7185138004246285</v>
       </c>
       <c r="AY116" t="n">
         <v>9777</v>
@@ -19273,16 +19433,16 @@
         <v>0.990990990990991</v>
       </c>
       <c r="AE117" t="n">
-        <v>123</v>
+        <v>119.25</v>
       </c>
       <c r="AF117" t="n">
-        <v>1.811981201171875e-05</v>
+        <v>1.800060272216797e-05</v>
       </c>
       <c r="AG117" t="n">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="AH117" t="n">
-        <v>0.8258258258258259</v>
+        <v>0.7635135135135135</v>
       </c>
       <c r="AI117" t="n">
         <v>28813</v>
@@ -19348,13 +19508,13 @@
         <v>61</v>
       </c>
       <c r="BD117" t="n">
-        <v>2.09808349609375e-05</v>
+        <v>2.491474151611328e-05</v>
       </c>
       <c r="BE117" t="n">
         <v>3</v>
       </c>
       <c r="BF117" t="n">
-        <v>0.6396396396396397</v>
+        <v>0.7297297297297297</v>
       </c>
     </row>
     <row r="118">
@@ -19572,7 +19732,7 @@
         <v>1</v>
       </c>
       <c r="L119" t="n">
-        <v>0.9896640826873385</v>
+        <v>0.9896640826873384</v>
       </c>
       <c r="M119" t="n">
         <v>605542</v>
@@ -19590,7 +19750,7 @@
         <v>10000</v>
       </c>
       <c r="R119" t="n">
-        <v>0.585613850129199</v>
+        <v>0.5856138501291989</v>
       </c>
       <c r="S119" t="n">
         <v>78652.60000000001</v>
@@ -19638,7 +19798,7 @@
         <v>30</v>
       </c>
       <c r="AH119" t="n">
-        <v>0.9683462532299743</v>
+        <v>0.9683462532299741</v>
       </c>
       <c r="AI119" t="n">
         <v>67217</v>
@@ -19858,7 +20018,7 @@
         <v>100</v>
       </c>
       <c r="AV120" t="n">
-        <v>0.9253731343283582</v>
+        <v>0.9253731343283581</v>
       </c>
       <c r="AW120" t="n">
         <v>100</v>
@@ -19928,7 +20088,7 @@
         <v>1</v>
       </c>
       <c r="L121" t="n">
-        <v>0.9178082191780822</v>
+        <v>0.9178082191780821</v>
       </c>
       <c r="M121" t="n">
         <v>308524.4</v>
@@ -20036,7 +20196,7 @@
         <v>100</v>
       </c>
       <c r="AV121" t="n">
-        <v>0.8607305936073061</v>
+        <v>0.8607305936073059</v>
       </c>
       <c r="AW121" t="n">
         <v>100</v>
@@ -20148,7 +20308,7 @@
         <v>65.66666666666667</v>
       </c>
       <c r="Z122" t="n">
-        <v>0.9581881533101044</v>
+        <v>0.9581881533101045</v>
       </c>
       <c r="AA122" t="n">
         <v>40787.6</v>
@@ -20326,7 +20486,7 @@
         <v>50.14285714285715</v>
       </c>
       <c r="Z123" t="n">
-        <v>0.9547880690737832</v>
+        <v>0.9547880690737834</v>
       </c>
       <c r="AA123" t="n">
         <v>75241.2</v>
@@ -20462,7 +20622,7 @@
         <v>1</v>
       </c>
       <c r="L124" t="n">
-        <v>0.889739663093415</v>
+        <v>0.8897396630934151</v>
       </c>
       <c r="M124" t="n">
         <v>1005134.6</v>
@@ -20504,7 +20664,7 @@
         <v>69.66666666666667</v>
       </c>
       <c r="Z124" t="n">
-        <v>0.9673302705461969</v>
+        <v>0.967330270546197</v>
       </c>
       <c r="AA124" t="n">
         <v>109723.8</v>
@@ -20519,16 +20679,16 @@
         <v>0.9905053598774884</v>
       </c>
       <c r="AE124" t="n">
-        <v>4816.666666666667</v>
+        <v>5018.6</v>
       </c>
       <c r="AF124" t="n">
         <v>0.0003299713134765625</v>
       </c>
       <c r="AG124" t="n">
-        <v>52</v>
+        <v>54.2</v>
       </c>
       <c r="AH124" t="n">
-        <v>0.9566105155691679</v>
+        <v>0.9565084226646248</v>
       </c>
       <c r="AI124" t="n">
         <v>106011</v>
@@ -20591,16 +20751,16 @@
         <v>0.9851965288412455</v>
       </c>
       <c r="BC124" t="n">
-        <v>201</v>
+        <v>231.6666666666667</v>
       </c>
       <c r="BD124" t="n">
-        <v>2.789497375488281e-05</v>
+        <v>3.004074096679688e-05</v>
       </c>
       <c r="BE124" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="BF124" t="n">
-        <v>0.7335375191424196</v>
+        <v>0.7411944869831547</v>
       </c>
     </row>
     <row r="125">
@@ -20640,7 +20800,7 @@
         <v>1</v>
       </c>
       <c r="L125" t="n">
-        <v>0.9657142857142857</v>
+        <v>0.9657142857142856</v>
       </c>
       <c r="M125" t="n">
         <v>343334</v>
@@ -20670,7 +20830,7 @@
         <v>1376</v>
       </c>
       <c r="V125" t="n">
-        <v>0.9714285714285713</v>
+        <v>0.9714285714285715</v>
       </c>
       <c r="W125" t="n">
         <v>1018.5</v>
@@ -20836,7 +20996,7 @@
         <v>10000</v>
       </c>
       <c r="R126" t="n">
-        <v>0.581979375</v>
+        <v>0.5819793750000001</v>
       </c>
       <c r="S126" t="n">
         <v>53883.8</v>
@@ -21192,7 +21352,7 @@
         <v>10000</v>
       </c>
       <c r="R128" t="n">
-        <v>0.721635601659751</v>
+        <v>0.7216356016597512</v>
       </c>
       <c r="S128" t="n">
         <v>147594.6</v>
@@ -21231,16 +21391,16 @@
         <v>1</v>
       </c>
       <c r="AE128" t="n">
-        <v>6236.666666666667</v>
+        <v>6923</v>
       </c>
       <c r="AF128" t="n">
-        <v>0.0003938674926757812</v>
+        <v>0.000411391258239746</v>
       </c>
       <c r="AG128" t="n">
-        <v>59.66666666666666</v>
+        <v>66.25</v>
       </c>
       <c r="AH128" t="n">
-        <v>0.9492853849700323</v>
+        <v>0.9571230982019364</v>
       </c>
       <c r="AI128" t="n">
         <v>119702</v>
@@ -21306,13 +21466,13 @@
         <v>436</v>
       </c>
       <c r="BD128" t="n">
-        <v>4.100799560546875e-05</v>
+        <v>4.208087921142578e-05</v>
       </c>
       <c r="BE128" t="n">
         <v>4</v>
       </c>
       <c r="BF128" t="n">
-        <v>0.7994467496542186</v>
+        <v>0.7351313969571232</v>
       </c>
     </row>
     <row r="129">
@@ -21409,16 +21569,16 @@
         <v>0.9781990521327014</v>
       </c>
       <c r="AE129" t="n">
-        <v>175</v>
+        <v>157.5</v>
       </c>
       <c r="AF129" t="n">
-        <v>1.71661376953125e-05</v>
+        <v>1.704692840576172e-05</v>
       </c>
       <c r="AG129" t="n">
-        <v>7.333333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="AH129" t="n">
-        <v>0.5371248025276462</v>
+        <v>0.5296208530805686</v>
       </c>
       <c r="AI129" t="n">
         <v>37956</v>
@@ -21481,16 +21641,16 @@
         <v>0.9383886255924171</v>
       </c>
       <c r="BC129" t="n">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="BD129" t="n">
-        <v>2.6702880859375e-05</v>
+        <v>2.539157867431641e-05</v>
       </c>
       <c r="BE129" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BF129" t="n">
-        <v>0.6587677725118484</v>
+        <v>0.5829383886255924</v>
       </c>
     </row>
     <row r="130">
@@ -21560,7 +21720,7 @@
         <v>1376</v>
       </c>
       <c r="V130" t="n">
-        <v>0.966828836797877</v>
+        <v>0.9668288367978771</v>
       </c>
       <c r="W130" t="n">
         <v>3751.75</v>
@@ -21708,7 +21868,7 @@
         <v>1</v>
       </c>
       <c r="L131" t="n">
-        <v>0.8885135135135134</v>
+        <v>0.8885135135135133</v>
       </c>
       <c r="M131" t="n">
         <v>935892.1666666666</v>
@@ -21720,13 +21880,13 @@
         <v>9816.5</v>
       </c>
       <c r="P131" t="n">
-        <v>0.9797297297297298</v>
+        <v>0.9797297297297297</v>
       </c>
       <c r="Q131" t="n">
         <v>10000</v>
       </c>
       <c r="R131" t="n">
-        <v>0.6859216216216216</v>
+        <v>0.6859216216216217</v>
       </c>
       <c r="S131" t="n">
         <v>111757.5</v>
@@ -21750,7 +21910,7 @@
         <v>64.57142857142857</v>
       </c>
       <c r="Z131" t="n">
-        <v>0.9464285714285714</v>
+        <v>0.9464285714285713</v>
       </c>
       <c r="AA131" t="n">
         <v>93654.60000000001</v>
@@ -21886,7 +22046,7 @@
         <v>1</v>
       </c>
       <c r="L132" t="n">
-        <v>0.8148584905660378</v>
+        <v>0.8148584905660379</v>
       </c>
       <c r="M132" t="n">
         <v>1308466.6</v>
@@ -21904,7 +22064,7 @@
         <v>10000</v>
       </c>
       <c r="R132" t="n">
-        <v>0.7422326179245282</v>
+        <v>0.7422326179245283</v>
       </c>
       <c r="S132" t="n">
         <v>164160</v>
@@ -22106,7 +22266,7 @@
         <v>57.71428571428572</v>
       </c>
       <c r="Z133" t="n">
-        <v>0.873281530185296</v>
+        <v>0.8732815301852959</v>
       </c>
       <c r="AA133" t="n">
         <v>30461.6</v>
@@ -22308,7 +22468,7 @@
         <v>39.33333333333334</v>
       </c>
       <c r="AH134" t="n">
-        <v>0.8119891008174388</v>
+        <v>0.8119891008174386</v>
       </c>
       <c r="AI134" t="n">
         <v>61991.5</v>
@@ -22450,7 +22610,7 @@
         <v>1376</v>
       </c>
       <c r="V135" t="n">
-        <v>0.992283950617284</v>
+        <v>0.9922839506172838</v>
       </c>
       <c r="W135" t="n">
         <v>7954.666666666667</v>
@@ -22474,7 +22634,7 @@
         <v>1147</v>
       </c>
       <c r="AD135" t="n">
-        <v>0.9882716049382717</v>
+        <v>0.9882716049382715</v>
       </c>
       <c r="AE135" t="n">
         <v>5165.666666666667</v>
@@ -22598,7 +22758,7 @@
         <v>1</v>
       </c>
       <c r="L136" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8636363636363635</v>
       </c>
       <c r="M136" t="n">
         <v>1469153.8</v>
@@ -22616,7 +22776,7 @@
         <v>10000</v>
       </c>
       <c r="R136" t="n">
-        <v>0.7425841866028707</v>
+        <v>0.7425841866028708</v>
       </c>
       <c r="S136" t="n">
         <v>183335</v>
@@ -22628,7 +22788,7 @@
         <v>1376</v>
       </c>
       <c r="V136" t="n">
-        <v>0.9669856459330145</v>
+        <v>0.9669856459330143</v>
       </c>
       <c r="W136" t="n">
         <v>10763</v>
@@ -22776,7 +22936,7 @@
         <v>1</v>
       </c>
       <c r="L137" t="n">
-        <v>0.9411764705882352</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="M137" t="n">
         <v>438762.4</v>
@@ -22788,13 +22948,13 @@
         <v>9947.6</v>
       </c>
       <c r="P137" t="n">
-        <v>0.9670588235294119</v>
+        <v>0.9670588235294117</v>
       </c>
       <c r="Q137" t="n">
         <v>10000</v>
       </c>
       <c r="R137" t="n">
-        <v>0.5340505098039217</v>
+        <v>0.5340505098039215</v>
       </c>
       <c r="S137" t="n">
         <v>38726.2</v>
@@ -22902,7 +23062,7 @@
         <v>133</v>
       </c>
       <c r="BB137" t="n">
-        <v>0.9712418300653596</v>
+        <v>0.9712418300653595</v>
       </c>
       <c r="BC137" t="n">
         <v>146</v>
@@ -23310,7 +23470,7 @@
         <v>1</v>
       </c>
       <c r="L140" t="n">
-        <v>0.9277899343544856</v>
+        <v>0.9277899343544858</v>
       </c>
       <c r="M140" t="n">
         <v>1622101.4</v>
@@ -23666,7 +23826,7 @@
         <v>1</v>
       </c>
       <c r="L142" t="n">
-        <v>0.9121621621621622</v>
+        <v>0.9121621621621621</v>
       </c>
       <c r="M142" t="n">
         <v>738711</v>
@@ -23684,7 +23844,7 @@
         <v>10000</v>
       </c>
       <c r="R142" t="n">
-        <v>0.5920934684684684</v>
+        <v>0.5920934684684686</v>
       </c>
       <c r="S142" t="n">
         <v>78694.2</v>
@@ -23696,7 +23856,7 @@
         <v>1376</v>
       </c>
       <c r="V142" t="n">
-        <v>0.9626126126126126</v>
+        <v>0.9626126126126128</v>
       </c>
       <c r="W142" t="n">
         <v>5791.333333333333</v>
@@ -23901,16 +24061,16 @@
         <v>0.9794676806083651</v>
       </c>
       <c r="AE143" t="n">
-        <v>7460.666666666667</v>
+        <v>7799.5</v>
       </c>
       <c r="AF143" t="n">
-        <v>0.0004839897155761719</v>
+        <v>0.0005079507827758789</v>
       </c>
       <c r="AG143" t="n">
-        <v>69.33333333333333</v>
+        <v>72.5</v>
       </c>
       <c r="AH143" t="n">
-        <v>0.8648077735530206</v>
+        <v>0.873574144486692</v>
       </c>
       <c r="AI143" t="n">
         <v>127012</v>
@@ -23952,7 +24112,7 @@
         <v>100</v>
       </c>
       <c r="AV143" t="n">
-        <v>0.87283481199831</v>
+        <v>0.8728348119983101</v>
       </c>
       <c r="AW143" t="n">
         <v>100</v>
@@ -23970,19 +24130,19 @@
         <v>133</v>
       </c>
       <c r="BB143" t="n">
-        <v>0.9615547106041403</v>
+        <v>0.9615547106041401</v>
       </c>
       <c r="BC143" t="n">
-        <v>452</v>
+        <v>559</v>
       </c>
       <c r="BD143" t="n">
-        <v>4.410743713378906e-05</v>
+        <v>6.246566772460938e-05</v>
       </c>
       <c r="BE143" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF143" t="n">
-        <v>0.6539923954372624</v>
+        <v>0.697084917617237</v>
       </c>
     </row>
     <row r="144">
@@ -24022,7 +24182,7 @@
         <v>1</v>
       </c>
       <c r="L144" t="n">
-        <v>0.8256130790190735</v>
+        <v>0.8256130790190737</v>
       </c>
       <c r="M144" t="n">
         <v>1786341.714285714</v>
@@ -24034,13 +24194,13 @@
         <v>9976.714285714286</v>
       </c>
       <c r="P144" t="n">
-        <v>0.9765148566238484</v>
+        <v>0.9765148566238483</v>
       </c>
       <c r="Q144" t="n">
         <v>10000</v>
       </c>
       <c r="R144" t="n">
-        <v>0.765683729077462</v>
+        <v>0.7656837290774622</v>
       </c>
       <c r="S144" t="n">
         <v>223307.1428571429</v>
@@ -24064,7 +24224,7 @@
         <v>118.75</v>
       </c>
       <c r="Z144" t="n">
-        <v>0.9784287011807448</v>
+        <v>0.9784287011807449</v>
       </c>
       <c r="AA144" t="n">
         <v>186640.8</v>
@@ -24079,16 +24239,16 @@
         <v>0.9965485921889192</v>
       </c>
       <c r="AE144" t="n">
-        <v>17617.75</v>
+        <v>17632.6</v>
       </c>
       <c r="AF144" t="n">
-        <v>0.001138091087341309</v>
+        <v>0.00124812126159668</v>
       </c>
       <c r="AG144" t="n">
-        <v>110.5</v>
+        <v>110.6</v>
       </c>
       <c r="AH144" t="n">
-        <v>0.9688919164396004</v>
+        <v>0.9702089009990917</v>
       </c>
       <c r="AI144" t="n">
         <v>178934</v>
@@ -24154,13 +24314,13 @@
         <v>978</v>
       </c>
       <c r="BD144" t="n">
-        <v>9.548664093017577e-05</v>
+        <v>8.0108642578125e-05</v>
       </c>
       <c r="BE144" t="n">
         <v>6</v>
       </c>
       <c r="BF144" t="n">
-        <v>0.726158038147139</v>
+        <v>0.7602179836512262</v>
       </c>
     </row>
     <row r="145">
@@ -24390,7 +24550,7 @@
         <v>9984.6</v>
       </c>
       <c r="P146" t="n">
-        <v>0.9448275862068964</v>
+        <v>0.9448275862068967</v>
       </c>
       <c r="Q146" t="n">
         <v>10000</v>
@@ -24574,7 +24734,7 @@
         <v>10000</v>
       </c>
       <c r="R147" t="n">
-        <v>0.7221523724792407</v>
+        <v>0.7221523724792408</v>
       </c>
       <c r="S147" t="n">
         <v>165479.3333333333</v>
@@ -24598,7 +24758,7 @@
         <v>112.4285714285714</v>
       </c>
       <c r="Z147" t="n">
-        <v>0.9550923572275886</v>
+        <v>0.9550923572275885</v>
       </c>
       <c r="AA147" t="n">
         <v>138354.4</v>
@@ -24613,16 +24773,16 @@
         <v>0.9893238434163703</v>
       </c>
       <c r="AE147" t="n">
-        <v>11040</v>
+        <v>10688.2</v>
       </c>
       <c r="AF147" t="n">
-        <v>0.0007566213607788086</v>
+        <v>0.0007481575012207031</v>
       </c>
       <c r="AG147" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AH147" t="n">
-        <v>0.9801304863582444</v>
+        <v>0.9791221826809016</v>
       </c>
       <c r="AI147" t="n">
         <v>138017</v>
@@ -24664,7 +24824,7 @@
         <v>100</v>
       </c>
       <c r="AV147" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="AW147" t="n">
         <v>100</v>
@@ -24685,16 +24845,16 @@
         <v>0.9679715302491103</v>
       </c>
       <c r="BC147" t="n">
-        <v>1019.5</v>
+        <v>844</v>
       </c>
       <c r="BD147" t="n">
-        <v>8.761882781982422e-05</v>
+        <v>6.008148193359375e-05</v>
       </c>
       <c r="BE147" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="BF147" t="n">
-        <v>0.8013048635824436</v>
+        <v>0.7841043890865954</v>
       </c>
     </row>
     <row r="148">
@@ -24734,7 +24894,7 @@
         <v>1</v>
       </c>
       <c r="L148" t="n">
-        <v>0.9044534412955467</v>
+        <v>0.9044534412955468</v>
       </c>
       <c r="M148" t="n">
         <v>1957961.333333333</v>
@@ -24752,7 +24912,7 @@
         <v>10000</v>
       </c>
       <c r="R148" t="n">
-        <v>0.7641885560053981</v>
+        <v>0.764188556005398</v>
       </c>
       <c r="S148" t="n">
         <v>245319.8333333333</v>
@@ -24764,7 +24924,7 @@
         <v>1376</v>
       </c>
       <c r="V148" t="n">
-        <v>0.9946018893387314</v>
+        <v>0.9946018893387315</v>
       </c>
       <c r="W148" t="n">
         <v>19942.57142857143</v>
@@ -24930,7 +25090,7 @@
         <v>10000</v>
       </c>
       <c r="R149" t="n">
-        <v>0.5290632136279926</v>
+        <v>0.5290632136279927</v>
       </c>
       <c r="S149" t="n">
         <v>49792.33333333334</v>
@@ -24954,7 +25114,7 @@
         <v>130.2857142857143</v>
       </c>
       <c r="Z149" t="n">
-        <v>0.8859510655090765</v>
+        <v>0.8859510655090767</v>
       </c>
       <c r="AA149" t="n">
         <v>41943.4</v>
@@ -25090,7 +25250,7 @@
         <v>1</v>
       </c>
       <c r="L150" t="n">
-        <v>0.8904382470119522</v>
+        <v>0.8904382470119523</v>
       </c>
       <c r="M150" t="n">
         <v>869726.8</v>
@@ -25132,7 +25292,7 @@
         <v>85.66666666666667</v>
       </c>
       <c r="Z150" t="n">
-        <v>0.9568393094289509</v>
+        <v>0.9568393094289508</v>
       </c>
       <c r="AA150" t="n">
         <v>78692</v>
@@ -25147,16 +25307,16 @@
         <v>0.9605577689243028</v>
       </c>
       <c r="AE150" t="n">
-        <v>2549.333333333333</v>
+        <v>2766</v>
       </c>
       <c r="AF150" t="n">
-        <v>0.0002050399780273438</v>
+        <v>0.0002095699310302734</v>
       </c>
       <c r="AG150" t="n">
-        <v>38.66666666666666</v>
+        <v>42</v>
       </c>
       <c r="AH150" t="n">
-        <v>0.852589641434263</v>
+        <v>0.8680278884462151</v>
       </c>
       <c r="AI150" t="n">
         <v>87016</v>
@@ -25204,7 +25364,7 @@
         <v>100</v>
       </c>
       <c r="AX150" t="n">
-        <v>0.6181938911022575</v>
+        <v>0.6181938911022576</v>
       </c>
       <c r="AY150" t="n">
         <v>9110.333333333334</v>
@@ -25222,13 +25382,13 @@
         <v>154</v>
       </c>
       <c r="BD150" t="n">
-        <v>3.314018249511719e-05</v>
+        <v>3.099441528320312e-05</v>
       </c>
       <c r="BE150" t="n">
         <v>2</v>
       </c>
       <c r="BF150" t="n">
-        <v>0.5856573705179283</v>
+        <v>0.6165338645418327</v>
       </c>
     </row>
     <row r="151">
@@ -25268,7 +25428,7 @@
         <v>1</v>
       </c>
       <c r="L151" t="n">
-        <v>0.8985200845665963</v>
+        <v>0.8985200845665962</v>
       </c>
       <c r="M151" t="n">
         <v>1499281.8</v>
@@ -25500,7 +25660,7 @@
         <v>1147</v>
       </c>
       <c r="AD152" t="n">
-        <v>0.9836641221374046</v>
+        <v>0.9836641221374045</v>
       </c>
       <c r="AE152" t="n">
         <v>24175.33333333333</v>
@@ -25624,7 +25784,7 @@
         <v>1</v>
       </c>
       <c r="L153" t="n">
-        <v>0.9786666666666667</v>
+        <v>0.9786666666666666</v>
       </c>
       <c r="M153" t="n">
         <v>589823.6</v>
@@ -25666,7 +25826,7 @@
         <v>134.5</v>
       </c>
       <c r="Z153" t="n">
-        <v>0.9493333333333335</v>
+        <v>0.9493333333333333</v>
       </c>
       <c r="AA153" t="n">
         <v>45407.2</v>
@@ -25814,7 +25974,7 @@
         <v>9997.833333333334</v>
       </c>
       <c r="P154" t="n">
-        <v>0.9442134442134441</v>
+        <v>0.9442134442134442</v>
       </c>
       <c r="Q154" t="n">
         <v>10000</v>
@@ -25916,7 +26076,7 @@
         <v>100</v>
       </c>
       <c r="AX154" t="n">
-        <v>0.6397851697851697</v>
+        <v>0.6397851697851699</v>
       </c>
       <c r="AY154" t="n">
         <v>9910.333333333334</v>
@@ -25992,13 +26152,13 @@
         <v>9997.6</v>
       </c>
       <c r="P155" t="n">
-        <v>0.9463220675944333</v>
+        <v>0.9463220675944335</v>
       </c>
       <c r="Q155" t="n">
         <v>10000</v>
       </c>
       <c r="R155" t="n">
-        <v>0.705988031809145</v>
+        <v>0.7059880318091452</v>
       </c>
       <c r="S155" t="n">
         <v>197109.2</v>
@@ -26037,16 +26197,16 @@
         <v>0.9904572564612326</v>
       </c>
       <c r="AE155" t="n">
-        <v>16381.33333333333</v>
+        <v>16287</v>
       </c>
       <c r="AF155" t="n">
-        <v>0.001028060913085938</v>
+        <v>0.001001477241516113</v>
       </c>
       <c r="AG155" t="n">
-        <v>116.6666666666667</v>
+        <v>116</v>
       </c>
       <c r="AH155" t="n">
-        <v>0.9347249834327368</v>
+        <v>0.9488071570576541</v>
       </c>
       <c r="AI155" t="n">
         <v>163021</v>
@@ -26109,16 +26269,16 @@
         <v>0.9612326043737575</v>
       </c>
       <c r="BC155" t="n">
-        <v>867</v>
+        <v>1357</v>
       </c>
       <c r="BD155" t="n">
-        <v>7.009506225585938e-05</v>
+        <v>0.0001015663146972656</v>
       </c>
       <c r="BE155" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="BF155" t="n">
-        <v>0.6699801192842942</v>
+        <v>0.7544731610337972</v>
       </c>
     </row>
     <row r="156">
@@ -26158,7 +26318,7 @@
         <v>1</v>
       </c>
       <c r="L156" t="n">
-        <v>0.9096820809248555</v>
+        <v>0.9096820809248556</v>
       </c>
       <c r="M156" t="n">
         <v>2319603.2</v>
@@ -26176,7 +26336,7 @@
         <v>10000</v>
       </c>
       <c r="R156" t="n">
-        <v>0.7869251734104046</v>
+        <v>0.7869251734104047</v>
       </c>
       <c r="S156" t="n">
         <v>292108.6</v>
@@ -26200,7 +26360,7 @@
         <v>139</v>
       </c>
       <c r="Z156" t="n">
-        <v>0.9809730250481695</v>
+        <v>0.9809730250481694</v>
       </c>
       <c r="AA156" t="n">
         <v>243968.8</v>
@@ -26212,7 +26372,7 @@
         <v>1147</v>
       </c>
       <c r="AD156" t="n">
-        <v>0.9856936416184972</v>
+        <v>0.985693641618497</v>
       </c>
       <c r="AE156" t="n">
         <v>21709.66666666667</v>
@@ -28219,13 +28379,13 @@
       </c>
       <c r="AD170" t="inlineStr"/>
       <c r="AE170" t="n">
-        <v>7983</v>
+        <v>8231</v>
       </c>
       <c r="AF170" t="n">
-        <v>0.0004198551177978516</v>
+        <v>0.000489354133605957</v>
       </c>
       <c r="AG170" t="n">
-        <v>82.66666666666667</v>
+        <v>85.25</v>
       </c>
       <c r="AH170" t="inlineStr"/>
       <c r="AI170" t="n">
@@ -28277,13 +28437,13 @@
       </c>
       <c r="BB170" t="inlineStr"/>
       <c r="BC170" t="n">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="BD170" t="n">
-        <v>4.00543212890625e-05</v>
+        <v>3.755092620849609e-05</v>
       </c>
       <c r="BE170" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BF170" t="inlineStr"/>
     </row>
@@ -28787,13 +28947,13 @@
       </c>
       <c r="AD174" t="inlineStr"/>
       <c r="AE174" t="n">
-        <v>11688</v>
+        <v>10220.5</v>
       </c>
       <c r="AF174" t="n">
-        <v>0.0007450580596923828</v>
+        <v>0.0006715059280395508</v>
       </c>
       <c r="AG174" t="n">
-        <v>113</v>
+        <v>98.75</v>
       </c>
       <c r="AH174" t="inlineStr"/>
       <c r="AI174" t="n">
@@ -28845,13 +29005,13 @@
       </c>
       <c r="BB174" t="inlineStr"/>
       <c r="BC174" t="n">
-        <v>856</v>
+        <v>1113.5</v>
       </c>
       <c r="BD174" t="n">
-        <v>7.200241088867188e-05</v>
+        <v>8.952617645263675e-05</v>
       </c>
       <c r="BE174" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="BF174" t="inlineStr"/>
     </row>
@@ -29781,13 +29941,13 @@
       </c>
       <c r="AD181" t="inlineStr"/>
       <c r="AE181" t="n">
-        <v>1962</v>
+        <v>1857</v>
       </c>
       <c r="AF181" t="n">
-        <v>0.0001409053802490234</v>
+        <v>0.0001344680786132812</v>
       </c>
       <c r="AG181" t="n">
-        <v>32</v>
+        <v>30.25</v>
       </c>
       <c r="AH181" t="inlineStr"/>
       <c r="AI181" t="n">
@@ -29839,13 +29999,13 @@
       </c>
       <c r="BB181" t="inlineStr"/>
       <c r="BC181" t="n">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="BD181" t="n">
-        <v>3.099441528320312e-05</v>
+        <v>3.707408905029297e-05</v>
       </c>
       <c r="BE181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF181" t="inlineStr"/>
     </row>
@@ -31059,13 +31219,13 @@
       </c>
       <c r="AD190" t="inlineStr"/>
       <c r="AE190" t="n">
-        <v>21274.33333333333</v>
+        <v>18918.75</v>
       </c>
       <c r="AF190" t="n">
-        <v>0.001386880874633789</v>
+        <v>0.001343369483947754</v>
       </c>
       <c r="AG190" t="n">
-        <v>158.3333333333333</v>
+        <v>140.75</v>
       </c>
       <c r="AH190" t="inlineStr"/>
       <c r="AI190" t="n">
@@ -31117,13 +31277,13 @@
       </c>
       <c r="BB190" t="inlineStr"/>
       <c r="BC190" t="n">
-        <v>572</v>
+        <v>1041</v>
       </c>
       <c r="BD190" t="n">
-        <v>5.674362182617188e-05</v>
+        <v>8.2850456237793e-05</v>
       </c>
       <c r="BE190" t="n">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="BF190" t="inlineStr"/>
     </row>
@@ -31343,13 +31503,13 @@
       </c>
       <c r="AD192" t="inlineStr"/>
       <c r="AE192" t="n">
-        <v>113605.5</v>
+        <v>119558.2</v>
       </c>
       <c r="AF192" t="n">
-        <v>0.007331371307373047</v>
+        <v>0.007555723190307617</v>
       </c>
       <c r="AG192" t="n">
-        <v>285.25</v>
+        <v>300.2</v>
       </c>
       <c r="AH192" t="inlineStr"/>
       <c r="AI192" t="n">
@@ -31401,13 +31561,13 @@
       </c>
       <c r="BB192" t="inlineStr"/>
       <c r="BC192" t="n">
-        <v>7403</v>
+        <v>6540.666666666667</v>
       </c>
       <c r="BD192" t="n">
-        <v>0.00049591064453125</v>
+        <v>0.0003960132598876953</v>
       </c>
       <c r="BE192" t="n">
-        <v>18.5</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="BF192" t="inlineStr"/>
     </row>
@@ -31911,13 +32071,13 @@
       </c>
       <c r="AD196" t="inlineStr"/>
       <c r="AE196" t="n">
-        <v>91077.33333333333</v>
+        <v>110740</v>
       </c>
       <c r="AF196" t="n">
-        <v>0.00545501708984375</v>
+        <v>0.006561517715454102</v>
       </c>
       <c r="AG196" t="n">
-        <v>215.6666666666667</v>
+        <v>262.25</v>
       </c>
       <c r="AH196" t="inlineStr"/>
       <c r="AI196" t="n">
@@ -31969,13 +32129,13 @@
       </c>
       <c r="BB196" t="inlineStr"/>
       <c r="BC196" t="n">
-        <v>10593</v>
+        <v>8905</v>
       </c>
       <c r="BD196" t="n">
-        <v>0.0006549358367919922</v>
+        <v>0.0005469322204589844</v>
       </c>
       <c r="BE196" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BF196" t="inlineStr"/>
     </row>
@@ -32053,13 +32213,13 @@
       </c>
       <c r="AD197" t="inlineStr"/>
       <c r="AE197" t="n">
-        <v>5192.666666666667</v>
+        <v>5674</v>
       </c>
       <c r="AF197" t="n">
-        <v>0.0003409385681152344</v>
+        <v>0.0004009008407592773</v>
       </c>
       <c r="AG197" t="n">
-        <v>67.66666666666667</v>
+        <v>74</v>
       </c>
       <c r="AH197" t="inlineStr"/>
       <c r="AI197" t="n">
@@ -32111,13 +32271,13 @@
       </c>
       <c r="BB197" t="inlineStr"/>
       <c r="BC197" t="n">
-        <v>188</v>
+        <v>378</v>
       </c>
       <c r="BD197" t="n">
-        <v>3.480911254882812e-05</v>
+        <v>5.638599395751953e-05</v>
       </c>
       <c r="BE197" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="BF197" t="inlineStr"/>
     </row>
@@ -32195,13 +32355,13 @@
       </c>
       <c r="AD198" t="inlineStr"/>
       <c r="AE198" t="n">
-        <v>25596.5</v>
+        <v>25060.66666666667</v>
       </c>
       <c r="AF198" t="n">
         <v>0.001485943794250488</v>
       </c>
       <c r="AG198" t="n">
-        <v>170.25</v>
+        <v>166.6666666666667</v>
       </c>
       <c r="AH198" t="inlineStr"/>
       <c r="AI198" t="n">
@@ -32253,13 +32413,13 @@
       </c>
       <c r="BB198" t="inlineStr"/>
       <c r="BC198" t="n">
-        <v>938</v>
+        <v>1088</v>
       </c>
       <c r="BD198" t="n">
-        <v>8.118152618408203e-05</v>
+        <v>9.405612945556641e-05</v>
       </c>
       <c r="BE198" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF198" t="inlineStr"/>
     </row>
@@ -32621,13 +32781,13 @@
       </c>
       <c r="AD201" t="inlineStr"/>
       <c r="AE201" t="n">
-        <v>4957.666666666667</v>
+        <v>4611</v>
       </c>
       <c r="AF201" t="n">
-        <v>0.0002970695495605469</v>
+        <v>0.000268101692199707</v>
       </c>
       <c r="AG201" t="n">
-        <v>61.33333333333334</v>
+        <v>57</v>
       </c>
       <c r="AH201" t="inlineStr"/>
       <c r="AI201" t="n">
@@ -32679,13 +32839,13 @@
       </c>
       <c r="BB201" t="inlineStr"/>
       <c r="BC201" t="n">
-        <v>837</v>
+        <v>517</v>
       </c>
       <c r="BD201" t="n">
-        <v>8.082389831542969e-05</v>
+        <v>5.984306335449219e-05</v>
       </c>
       <c r="BE201" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BF201" t="inlineStr"/>
     </row>
@@ -33047,13 +33207,13 @@
       </c>
       <c r="AD204" t="inlineStr"/>
       <c r="AE204" t="n">
-        <v>150660</v>
+        <v>173666.4</v>
       </c>
       <c r="AF204" t="n">
-        <v>0.007380008697509766</v>
+        <v>0.0119926929473877</v>
       </c>
       <c r="AG204" t="n">
-        <v>317.6666666666667</v>
+        <v>366.2</v>
       </c>
       <c r="AH204" t="inlineStr"/>
       <c r="AI204" t="n">
@@ -33105,13 +33265,13 @@
       </c>
       <c r="BB204" t="inlineStr"/>
       <c r="BC204" t="n">
-        <v>13317</v>
+        <v>11737</v>
       </c>
       <c r="BD204" t="n">
-        <v>0.000827789306640625</v>
+        <v>0.0008261203765869141</v>
       </c>
       <c r="BE204" t="n">
-        <v>28</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="BF204" t="inlineStr"/>
     </row>
@@ -34041,13 +34201,13 @@
       </c>
       <c r="AD211" t="inlineStr"/>
       <c r="AE211" t="n">
-        <v>99030.33333333333</v>
+        <v>104210</v>
       </c>
       <c r="AF211" t="n">
-        <v>0.006459951400756836</v>
+        <v>0.006720423698425293</v>
       </c>
       <c r="AG211" t="n">
-        <v>280.3333333333333</v>
+        <v>295</v>
       </c>
       <c r="AH211" t="inlineStr"/>
       <c r="AI211" t="n">
@@ -34099,13 +34259,13 @@
       </c>
       <c r="BB211" t="inlineStr"/>
       <c r="BC211" t="n">
-        <v>5340</v>
+        <v>6046</v>
       </c>
       <c r="BD211" t="n">
-        <v>0.0003199577331542969</v>
+        <v>0.0003778934478759766</v>
       </c>
       <c r="BE211" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BF211" t="inlineStr"/>
     </row>
@@ -34183,13 +34343,13 @@
       </c>
       <c r="AD212" t="inlineStr"/>
       <c r="AE212" t="n">
-        <v>177645</v>
+        <v>210894</v>
       </c>
       <c r="AF212" t="n">
-        <v>0.01019525527954102</v>
+        <v>0.01078915596008301</v>
       </c>
       <c r="AG212" t="n">
-        <v>335.6666666666667</v>
+        <v>398.5</v>
       </c>
       <c r="AH212" t="inlineStr"/>
       <c r="AI212" t="n">
@@ -34241,13 +34401,13 @@
       </c>
       <c r="BB212" t="inlineStr"/>
       <c r="BC212" t="n">
-        <v>20151</v>
+        <v>21209</v>
       </c>
       <c r="BD212" t="n">
-        <v>0.001157283782958984</v>
+        <v>0.001219153404235839</v>
       </c>
       <c r="BE212" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BF212" t="inlineStr"/>
     </row>
@@ -34609,13 +34769,13 @@
       </c>
       <c r="AD215" t="inlineStr"/>
       <c r="AE215" t="n">
-        <v>138721.6666666667</v>
+        <v>134379</v>
       </c>
       <c r="AF215" t="n">
-        <v>0.008023738861083984</v>
+        <v>0.007717370986938477</v>
       </c>
       <c r="AG215" t="n">
-        <v>372.6666666666667</v>
+        <v>361</v>
       </c>
       <c r="AH215" t="inlineStr"/>
       <c r="AI215" t="n">
@@ -34667,13 +34827,13 @@
       </c>
       <c r="BB215" t="inlineStr"/>
       <c r="BC215" t="n">
-        <v>7486</v>
+        <v>6184</v>
       </c>
       <c r="BD215" t="n">
-        <v>0.0004622936248779297</v>
+        <v>0.00038909912109375</v>
       </c>
       <c r="BE215" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="BF215" t="inlineStr"/>
     </row>
@@ -35177,13 +35337,13 @@
       </c>
       <c r="AD219" t="inlineStr"/>
       <c r="AE219" t="n">
-        <v>144739.5</v>
+        <v>133524.4</v>
       </c>
       <c r="AF219" t="n">
-        <v>0.009483695030212401</v>
+        <v>0.008168220520019531</v>
       </c>
       <c r="AG219" t="n">
-        <v>369</v>
+        <v>340.4</v>
       </c>
       <c r="AH219" t="inlineStr"/>
       <c r="AI219" t="n">
@@ -35235,13 +35395,13 @@
       </c>
       <c r="BB219" t="inlineStr"/>
       <c r="BC219" t="n">
-        <v>4947</v>
+        <v>5143</v>
       </c>
       <c r="BD219" t="n">
-        <v>0.0003018379211425781</v>
+        <v>0.0003426074981689453</v>
       </c>
       <c r="BE219" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BF219" t="inlineStr"/>
     </row>
@@ -36313,13 +36473,13 @@
       </c>
       <c r="AD227" t="inlineStr"/>
       <c r="AE227" t="n">
-        <v>178938.6666666667</v>
+        <v>205622</v>
       </c>
       <c r="AF227" t="n">
-        <v>0.01026105880737305</v>
+        <v>0.01109158992767334</v>
       </c>
       <c r="AG227" t="n">
-        <v>414</v>
+        <v>475.75</v>
       </c>
       <c r="AH227" t="inlineStr"/>
       <c r="AI227" t="n">
@@ -36371,13 +36531,13 @@
       </c>
       <c r="BB227" t="inlineStr"/>
       <c r="BC227" t="n">
-        <v>8259</v>
+        <v>7827</v>
       </c>
       <c r="BD227" t="n">
-        <v>0.0005137920379638672</v>
+        <v>0.0004827976226806641</v>
       </c>
       <c r="BE227" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BF227" t="inlineStr"/>
     </row>
@@ -36455,13 +36615,13 @@
       </c>
       <c r="AD228" t="inlineStr"/>
       <c r="AE228" t="n">
-        <v>289958</v>
+        <v>325227.5</v>
       </c>
       <c r="AF228" t="n">
-        <v>0.01826596260070801</v>
+        <v>0.01982402801513672</v>
       </c>
       <c r="AG228" t="n">
-        <v>448</v>
+        <v>502.5</v>
       </c>
       <c r="AH228" t="inlineStr"/>
       <c r="AI228" t="n">
@@ -36513,13 +36673,13 @@
       </c>
       <c r="BB228" t="inlineStr"/>
       <c r="BC228" t="n">
-        <v>25288</v>
+        <v>24964.5</v>
       </c>
       <c r="BD228" t="n">
-        <v>0.001557111740112305</v>
+        <v>0.001523017883300781</v>
       </c>
       <c r="BE228" t="n">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="BF228" t="inlineStr"/>
     </row>
@@ -37591,13 +37751,13 @@
       </c>
       <c r="AD236" t="inlineStr"/>
       <c r="AE236" t="n">
-        <v>385711.6666666667</v>
+        <v>348852</v>
       </c>
       <c r="AF236" t="n">
-        <v>0.02780914306640625</v>
+        <v>0.02073872089385986</v>
       </c>
       <c r="AG236" t="n">
-        <v>542.3333333333334</v>
+        <v>490.5</v>
       </c>
       <c r="AH236" t="inlineStr"/>
       <c r="AI236" t="n">
@@ -37649,13 +37809,13 @@
       </c>
       <c r="BB236" t="inlineStr"/>
       <c r="BC236" t="n">
-        <v>40586</v>
+        <v>34898</v>
       </c>
       <c r="BD236" t="n">
-        <v>0.002295732498168945</v>
+        <v>0.002047538757324218</v>
       </c>
       <c r="BE236" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="BF236" t="inlineStr"/>
     </row>
@@ -37733,13 +37893,13 @@
       </c>
       <c r="AD237" t="inlineStr"/>
       <c r="AE237" t="n">
-        <v>21861.66666666667</v>
+        <v>19757.5</v>
       </c>
       <c r="AF237" t="n">
-        <v>0.00151515007019043</v>
+        <v>0.00130462646484375</v>
       </c>
       <c r="AG237" t="n">
-        <v>174.3333333333333</v>
+        <v>157.5</v>
       </c>
       <c r="AH237" t="inlineStr"/>
       <c r="AI237" t="n">
@@ -37791,13 +37951,13 @@
       </c>
       <c r="BB237" t="inlineStr"/>
       <c r="BC237" t="n">
-        <v>1048</v>
+        <v>1110.5</v>
       </c>
       <c r="BD237" t="n">
-        <v>9.417533874511719e-05</v>
+        <v>9.667873382568359e-05</v>
       </c>
       <c r="BE237" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF237" t="inlineStr"/>
     </row>
@@ -38159,13 +38319,13 @@
       </c>
       <c r="AD240" t="inlineStr"/>
       <c r="AE240" t="n">
-        <v>336885.6666666667</v>
+        <v>368197.5</v>
       </c>
       <c r="AF240" t="n">
-        <v>0.02036809921264648</v>
+        <v>0.02171456813812256</v>
       </c>
       <c r="AG240" t="n">
-        <v>452.6666666666667</v>
+        <v>494.75</v>
       </c>
       <c r="AH240" t="inlineStr"/>
       <c r="AI240" t="n">
@@ -38217,13 +38377,13 @@
       </c>
       <c r="BB240" t="inlineStr"/>
       <c r="BC240" t="n">
-        <v>36516</v>
+        <v>39492</v>
       </c>
       <c r="BD240" t="n">
-        <v>0.00217890739440918</v>
+        <v>0.002480983734130859</v>
       </c>
       <c r="BE240" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="BF240" t="inlineStr"/>
     </row>
@@ -39579,13 +39739,13 @@
       </c>
       <c r="AD250" t="inlineStr"/>
       <c r="AE250" t="n">
-        <v>126863.6666666667</v>
+        <v>131597</v>
       </c>
       <c r="AF250" t="n">
-        <v>0.007741928100585938</v>
+        <v>0.008194446563720703</v>
       </c>
       <c r="AG250" t="n">
-        <v>446.3333333333333</v>
+        <v>463</v>
       </c>
       <c r="AH250" t="inlineStr"/>
       <c r="AI250" t="n">
@@ -39637,13 +39797,13 @@
       </c>
       <c r="BB250" t="inlineStr"/>
       <c r="BC250" t="n">
-        <v>2609</v>
+        <v>2893</v>
       </c>
       <c r="BD250" t="n">
-        <v>0.0001919269561767578</v>
+        <v>0.0002033710479736328</v>
       </c>
       <c r="BE250" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BF250" t="inlineStr"/>
     </row>
@@ -39863,13 +40023,13 @@
       </c>
       <c r="AD252" t="inlineStr"/>
       <c r="AE252" t="n">
-        <v>505524.5</v>
+        <v>544027.6</v>
       </c>
       <c r="AF252" t="n">
-        <v>0.02903497219085693</v>
+        <v>0.03029203414916992</v>
       </c>
       <c r="AG252" t="n">
-        <v>596</v>
+        <v>641.4</v>
       </c>
       <c r="AH252" t="inlineStr"/>
       <c r="AI252" t="n">
@@ -39921,13 +40081,13 @@
       </c>
       <c r="BB252" t="inlineStr"/>
       <c r="BC252" t="n">
-        <v>52217</v>
+        <v>48401</v>
       </c>
       <c r="BD252" t="n">
-        <v>0.003203511238098145</v>
+        <v>0.002496004104614258</v>
       </c>
       <c r="BE252" t="n">
-        <v>61.5</v>
+        <v>57</v>
       </c>
       <c r="BF252" t="inlineStr"/>
     </row>
@@ -40573,13 +40733,13 @@
       </c>
       <c r="AD257" t="inlineStr"/>
       <c r="AE257" t="n">
-        <v>33044.33333333334</v>
+        <v>33057.25</v>
       </c>
       <c r="AF257" t="n">
-        <v>0.001980304718017578</v>
+        <v>0.001972675323486328</v>
       </c>
       <c r="AG257" t="n">
-        <v>212.6666666666667</v>
+        <v>212.75</v>
       </c>
       <c r="AH257" t="inlineStr"/>
       <c r="AI257" t="n">
@@ -40631,13 +40791,13 @@
       </c>
       <c r="BB257" t="inlineStr"/>
       <c r="BC257" t="n">
-        <v>983</v>
+        <v>1138</v>
       </c>
       <c r="BD257" t="n">
-        <v>8.606910705566406e-05</v>
+        <v>9.655952453613284e-05</v>
       </c>
       <c r="BE257" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF257" t="inlineStr"/>
     </row>
@@ -41283,13 +41443,13 @@
       </c>
       <c r="AD262" t="inlineStr"/>
       <c r="AE262" t="n">
-        <v>266561.3333333333</v>
+        <v>257118</v>
       </c>
       <c r="AF262" t="n">
-        <v>0.01498174667358398</v>
+        <v>0.01444196701049805</v>
       </c>
       <c r="AG262" t="n">
-        <v>714.3333333333334</v>
+        <v>689</v>
       </c>
       <c r="AH262" t="inlineStr"/>
       <c r="AI262" t="n">
@@ -41341,13 +41501,13 @@
       </c>
       <c r="BB262" t="inlineStr"/>
       <c r="BC262" t="n">
-        <v>7149</v>
+        <v>6651.666666666667</v>
       </c>
       <c r="BD262" t="n">
-        <v>0.0004649162292480469</v>
+        <v>0.0004601478576660156</v>
       </c>
       <c r="BE262" t="n">
-        <v>19</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="BF262" t="inlineStr"/>
     </row>
@@ -41425,13 +41585,13 @@
       </c>
       <c r="AD263" t="inlineStr"/>
       <c r="AE263" t="n">
-        <v>795977.6666666666</v>
+        <v>737632.5</v>
       </c>
       <c r="AF263" t="n">
-        <v>0.04685807228088379</v>
+        <v>0.04458296298980713</v>
       </c>
       <c r="AG263" t="n">
-        <v>1069.666666666667</v>
+        <v>991.25</v>
       </c>
       <c r="AH263" t="inlineStr"/>
       <c r="AI263" t="n">
@@ -41483,13 +41643,13 @@
       </c>
       <c r="BB263" t="inlineStr"/>
       <c r="BC263" t="n">
-        <v>40990</v>
+        <v>36898</v>
       </c>
       <c r="BD263" t="n">
-        <v>0.00238800048828125</v>
+        <v>0.002213478088378906</v>
       </c>
       <c r="BE263" t="n">
-        <v>55</v>
+        <v>49.5</v>
       </c>
       <c r="BF263" t="inlineStr"/>
     </row>
@@ -42845,13 +43005,13 @@
       </c>
       <c r="AD273" t="inlineStr"/>
       <c r="AE273" t="n">
-        <v>218594</v>
+        <v>215501.2</v>
       </c>
       <c r="AF273" t="n">
-        <v>0.01334607601165771</v>
+        <v>0.01299405097961426</v>
       </c>
       <c r="AG273" t="n">
-        <v>721</v>
+        <v>710.8</v>
       </c>
       <c r="AH273" t="inlineStr"/>
       <c r="AI273" t="n">
@@ -42903,13 +43063,13 @@
       </c>
       <c r="BB273" t="inlineStr"/>
       <c r="BC273" t="n">
-        <v>5531</v>
+        <v>7955</v>
       </c>
       <c r="BD273" t="n">
-        <v>0.0003609657287597656</v>
+        <v>0.0003960132598876953</v>
       </c>
       <c r="BE273" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="BF273" t="inlineStr"/>
     </row>
@@ -44407,13 +44567,13 @@
       </c>
       <c r="AD284" t="inlineStr"/>
       <c r="AE284" t="n">
-        <v>4297500.666666667</v>
+        <v>4446544</v>
       </c>
       <c r="AF284" t="n">
-        <v>0.2775461673736572</v>
+        <v>0.2827941179275513</v>
       </c>
       <c r="AG284" t="n">
-        <v>1811.666666666667</v>
+        <v>1874.5</v>
       </c>
       <c r="AH284" t="inlineStr"/>
       <c r="AI284" t="n">
@@ -44465,13 +44625,13 @@
       </c>
       <c r="BB284" t="inlineStr"/>
       <c r="BC284" t="n">
-        <v>669031</v>
+        <v>671403</v>
       </c>
       <c r="BD284" t="n">
-        <v>0.03821516036987305</v>
+        <v>0.03928756713867188</v>
       </c>
       <c r="BE284" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BF284" t="inlineStr"/>
     </row>
@@ -45117,13 +45277,13 @@
       </c>
       <c r="AD289" t="inlineStr"/>
       <c r="AE289" t="n">
-        <v>787659.6666666666</v>
+        <v>797238.25</v>
       </c>
       <c r="AF289" t="n">
-        <v>0.04640698432922363</v>
+        <v>0.04728484153747559</v>
       </c>
       <c r="AG289" t="n">
-        <v>1568.666666666667</v>
+        <v>1587.75</v>
       </c>
       <c r="AH289" t="inlineStr"/>
       <c r="AI289" t="n">
@@ -45175,13 +45335,13 @@
       </c>
       <c r="BB289" t="inlineStr"/>
       <c r="BC289" t="n">
-        <v>35239</v>
+        <v>22940</v>
       </c>
       <c r="BD289" t="n">
-        <v>0.002096891403198242</v>
+        <v>0.001392841339111328</v>
       </c>
       <c r="BE289" t="n">
-        <v>70</v>
+        <v>45.5</v>
       </c>
       <c r="BF289" t="inlineStr"/>
     </row>
@@ -45259,13 +45419,13 @@
       </c>
       <c r="AD290" t="inlineStr"/>
       <c r="AE290" t="n">
-        <v>2101170</v>
+        <v>2192277.5</v>
       </c>
       <c r="AF290" t="n">
-        <v>0.1215741634368896</v>
+        <v>0.1381884813308716</v>
       </c>
       <c r="AG290" t="n">
-        <v>2094.666666666667</v>
+        <v>2185.5</v>
       </c>
       <c r="AH290" t="inlineStr"/>
       <c r="AI290" t="n">
@@ -45317,13 +45477,13 @@
       </c>
       <c r="BB290" t="inlineStr"/>
       <c r="BC290" t="n">
-        <v>116459</v>
+        <v>119468</v>
       </c>
       <c r="BD290" t="n">
-        <v>0.006684064865112305</v>
+        <v>0.007090568542480469</v>
       </c>
       <c r="BE290" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="BF290" t="inlineStr"/>
     </row>
@@ -45543,13 +45703,13 @@
       </c>
       <c r="AD292" t="inlineStr"/>
       <c r="AE292" t="n">
-        <v>7176192</v>
+        <v>7442887.75</v>
       </c>
       <c r="AF292" t="n">
-        <v>0.3328030109405518</v>
+        <v>0.4134039878845215</v>
       </c>
       <c r="AG292" t="n">
-        <v>2388</v>
+        <v>2476.75</v>
       </c>
       <c r="AH292" t="inlineStr"/>
       <c r="AI292" t="n">
@@ -45601,13 +45761,13 @@
       </c>
       <c r="BB292" t="inlineStr"/>
       <c r="BC292" t="n">
-        <v>1511666</v>
+        <v>1427526</v>
       </c>
       <c r="BD292" t="n">
-        <v>0.08616495132446289</v>
+        <v>0.08399546146392822</v>
       </c>
       <c r="BE292" t="n">
-        <v>503</v>
+        <v>475</v>
       </c>
       <c r="BF292" t="inlineStr"/>
     </row>
@@ -46395,13 +46555,13 @@
       </c>
       <c r="AD298" t="inlineStr"/>
       <c r="AE298" t="n">
-        <v>3424435</v>
+        <v>3208946.75</v>
       </c>
       <c r="AF298" t="n">
-        <v>0.2309801578521729</v>
+        <v>0.2024556398391724</v>
       </c>
       <c r="AG298" t="n">
-        <v>2763.666666666667</v>
+        <v>2589.75</v>
       </c>
       <c r="AH298" t="inlineStr"/>
       <c r="AI298" t="n">
@@ -46453,13 +46613,13 @@
       </c>
       <c r="BB298" t="inlineStr"/>
       <c r="BC298" t="n">
-        <v>178541</v>
+        <v>142610</v>
       </c>
       <c r="BD298" t="n">
-        <v>0.01033210754394531</v>
+        <v>0.008530020713806152</v>
       </c>
       <c r="BE298" t="n">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="BF298" t="inlineStr"/>
     </row>
@@ -46821,13 +46981,13 @@
       </c>
       <c r="AD301" t="inlineStr"/>
       <c r="AE301" t="n">
-        <v>8723878</v>
+        <v>8384502.5</v>
       </c>
       <c r="AF301" t="n">
-        <v>0.5403048992156982</v>
+        <v>0.5215574502944946</v>
       </c>
       <c r="AG301" t="n">
-        <v>6240</v>
+        <v>5997.25</v>
       </c>
       <c r="AH301" t="inlineStr"/>
       <c r="AI301" t="n">
@@ -46879,13 +47039,13 @@
       </c>
       <c r="BB301" t="inlineStr"/>
       <c r="BC301" t="n">
-        <v>243429</v>
+        <v>258108</v>
       </c>
       <c r="BD301" t="n">
-        <v>0.01437115669250488</v>
+        <v>0.01524221897125244</v>
       </c>
       <c r="BE301" t="n">
-        <v>174</v>
+        <v>184.5</v>
       </c>
       <c r="BF301" t="inlineStr"/>
     </row>
@@ -47105,13 +47265,13 @@
       </c>
       <c r="AD303" t="inlineStr"/>
       <c r="AE303" t="n">
-        <v>48673203.33333334</v>
+        <v>46333280</v>
       </c>
       <c r="AF303" t="n">
-        <v>2.795174121856689</v>
+        <v>2.678674936294556</v>
       </c>
       <c r="AG303" t="n">
-        <v>8708.666666666666</v>
+        <v>8290</v>
       </c>
       <c r="AH303" t="inlineStr"/>
       <c r="AI303" t="n">
@@ -47163,13 +47323,13 @@
       </c>
       <c r="BB303" t="inlineStr"/>
       <c r="BC303" t="n">
-        <v>6662349</v>
+        <v>6377310</v>
       </c>
       <c r="BD303" t="n">
-        <v>0.3913009166717529</v>
+        <v>0.3828558921813965</v>
       </c>
       <c r="BE303" t="n">
-        <v>1192</v>
+        <v>1141</v>
       </c>
       <c r="BF303" t="inlineStr"/>
     </row>
@@ -47673,13 +47833,13 @@
       </c>
       <c r="AD307" t="inlineStr"/>
       <c r="AE307" t="n">
-        <v>145475652.6666667</v>
+        <v>146215420.5</v>
       </c>
       <c r="AF307" t="n">
-        <v>8.907663106918335</v>
+        <v>8.930963039398193</v>
       </c>
       <c r="AG307" t="n">
-        <v>14617.66666666667</v>
+        <v>14692</v>
       </c>
       <c r="AH307" t="inlineStr"/>
       <c r="AI307" t="n">
@@ -47731,13 +47891,13 @@
       </c>
       <c r="BB307" t="inlineStr"/>
       <c r="BC307" t="n">
-        <v>36991983</v>
+        <v>34225327</v>
       </c>
       <c r="BD307" t="n">
-        <v>2.247948169708252</v>
+        <v>2.061353206634521</v>
       </c>
       <c r="BE307" t="n">
-        <v>3717</v>
+        <v>3439</v>
       </c>
       <c r="BF307" t="inlineStr"/>
     </row>
@@ -47815,13 +47975,13 @@
       </c>
       <c r="AD308" t="inlineStr"/>
       <c r="AE308" t="n">
-        <v>233570899.5</v>
+        <v>234712822.4</v>
       </c>
       <c r="AF308" t="n">
-        <v>13.6317265033722</v>
+        <v>14.224848985672</v>
       </c>
       <c r="AG308" t="n">
-        <v>15647.5</v>
+        <v>15724</v>
       </c>
       <c r="AH308" t="inlineStr"/>
       <c r="AI308" t="n">
@@ -47873,13 +48033,13 @@
       </c>
       <c r="BB308" t="inlineStr"/>
       <c r="BC308" t="n">
-        <v>90450655.5</v>
+        <v>97976351.33333333</v>
       </c>
       <c r="BD308" t="n">
-        <v>6.057191014289856</v>
+        <v>6.973198175430298</v>
       </c>
       <c r="BE308" t="n">
-        <v>6059.5</v>
+        <v>6563.666666666667</v>
       </c>
       <c r="BF308" t="inlineStr"/>
     </row>
@@ -48667,13 +48827,13 @@
       </c>
       <c r="AD314" t="inlineStr"/>
       <c r="AE314" t="n">
-        <v>391982608.6666667</v>
+        <v>371722629.5</v>
       </c>
       <c r="AF314" t="n">
-        <v>24.452152967453</v>
+        <v>24.37391102313995</v>
       </c>
       <c r="AG314" t="n">
-        <v>34954.66666666666</v>
+        <v>33148</v>
       </c>
       <c r="AH314" t="inlineStr"/>
       <c r="AI314" t="n">
@@ -48725,13 +48885,13 @@
       </c>
       <c r="BB314" t="inlineStr"/>
       <c r="BC314" t="n">
-        <v>56620011</v>
+        <v>60999078</v>
       </c>
       <c r="BD314" t="n">
-        <v>3.698195934295654</v>
+        <v>3.879482865333557</v>
       </c>
       <c r="BE314" t="n">
-        <v>5049</v>
+        <v>5439.5</v>
       </c>
       <c r="BF314" t="inlineStr"/>
     </row>
@@ -48951,13 +49111,13 @@
       </c>
       <c r="AD316" t="inlineStr"/>
       <c r="AE316" t="n">
-        <v>1474039750.666667</v>
+        <v>1429608221</v>
       </c>
       <c r="AF316" t="n">
-        <v>97.63264393806458</v>
+        <v>90.44900190830231</v>
       </c>
       <c r="AG316" t="n">
-        <v>43819.33333333334</v>
+        <v>42498.5</v>
       </c>
       <c r="AH316" t="inlineStr"/>
       <c r="AI316" t="n">
@@ -49009,13 +49169,13 @@
       </c>
       <c r="BB316" t="inlineStr"/>
       <c r="BC316" t="n">
-        <v>806815568.5</v>
+        <v>868952408</v>
       </c>
       <c r="BD316" t="n">
-        <v>57.03146946430206</v>
+        <v>57.79333090782166</v>
       </c>
       <c r="BE316" t="n">
-        <v>23984.5</v>
+        <v>25831.66666666667</v>
       </c>
       <c r="BF316" t="inlineStr"/>
     </row>
@@ -49661,13 +49821,13 @@
       </c>
       <c r="AD321" t="inlineStr"/>
       <c r="AE321" t="n">
-        <v>570226646</v>
+        <v>557840208.5</v>
       </c>
       <c r="AF321" t="n">
-        <v>38.37373900413513</v>
+        <v>37.65046501159668</v>
       </c>
       <c r="AG321" t="n">
-        <v>57154</v>
+        <v>55912.5</v>
       </c>
       <c r="AH321" t="inlineStr"/>
       <c r="AI321" t="n">
@@ -49719,13 +49879,13 @@
       </c>
       <c r="BB321" t="inlineStr"/>
       <c r="BC321" t="n">
-        <v>66217948</v>
+        <v>61274344.5</v>
       </c>
       <c r="BD321" t="n">
-        <v>4.347526788711548</v>
+        <v>4.061124920845032</v>
       </c>
       <c r="BE321" t="n">
-        <v>6637</v>
+        <v>6141.5</v>
       </c>
       <c r="BF321" t="inlineStr"/>
     </row>
@@ -50724,9 +50884,15 @@
         <v>1147</v>
       </c>
       <c r="AD329" t="inlineStr"/>
-      <c r="AE329" t="inlineStr"/>
-      <c r="AF329" t="inlineStr"/>
-      <c r="AG329" t="inlineStr"/>
+      <c r="AE329" t="n">
+        <v>1128705046</v>
+      </c>
+      <c r="AF329" t="n">
+        <v>78.09971213340759</v>
+      </c>
+      <c r="AG329" t="n">
+        <v>72376</v>
+      </c>
       <c r="AH329" t="inlineStr"/>
       <c r="AI329" t="n">
         <v>16094020</v>
@@ -50776,9 +50942,15 @@
         <v>133</v>
       </c>
       <c r="BB329" t="inlineStr"/>
-      <c r="BC329" t="inlineStr"/>
-      <c r="BD329" t="inlineStr"/>
-      <c r="BE329" t="inlineStr"/>
+      <c r="BC329" t="n">
+        <v>189402086</v>
+      </c>
+      <c r="BD329" t="n">
+        <v>12.76286005973816</v>
+      </c>
+      <c r="BE329" t="n">
+        <v>12145</v>
+      </c>
       <c r="BF329" t="inlineStr"/>
     </row>
     <row r="330">
